--- a/static/forms/FT-GFI-001.xlsx
+++ b/static/forms/FT-GFI-001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinAlexisAlvearLop\Desktop\Workspace\dashboard-ft\static\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7FE49-FBB9-4696-81C7-379A96121AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB96768-2776-4D4A-AFD2-F7716A327DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,34 +884,407 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -923,6 +1296,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,413 +1349,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1984,8 +1984,8 @@
         <xdr:to>
           <xdr:col>31</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>375</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2051,8 +2051,8 @@
         <xdr:to>
           <xdr:col>31</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>374</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3123,8 +3123,8 @@
         <xdr:to>
           <xdr:col>39</xdr:col>
           <xdr:colOff>160020</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>174885</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3994,8 +3994,8 @@
         <xdr:to>
           <xdr:col>31</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>375</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4195,8 +4195,8 @@
         <xdr:to>
           <xdr:col>31</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>375</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4533,7 +4533,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Imagen 77">
+        <xdr:cNvPr id="78" name="LOGO_SRC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScale="122" zoomScaleNormal="122" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AG107" sqref="AG107:AL107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.25"/>
@@ -5327,174 +5327,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="148" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="91" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
     </row>
     <row r="2" spans="1:38" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="91" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
     </row>
     <row r="3" spans="1:38" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="150" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
     </row>
     <row r="4" spans="1:38" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="151"/>
-      <c r="AL4" s="151"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
     </row>
     <row r="5" spans="1:38" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
@@ -5532,188 +5532,188 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="155" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="100" t="s">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="164" t="s">
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="166"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="63"/>
     </row>
     <row r="7" spans="1:38" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="153"/>
-      <c r="AI7" s="153"/>
-      <c r="AJ7" s="153"/>
-      <c r="AK7" s="153"/>
-      <c r="AL7" s="154"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="35"/>
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="70"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="38"/>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="94" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="94" t="s">
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="143"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="48"/>
     </row>
     <row r="10" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="26" t="s">
         <v>46</v>
       </c>
@@ -5725,617 +5725,617 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="144"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="94" t="s">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="94" t="s">
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="99"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="81"/>
     </row>
     <row r="11" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="123" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="146" t="s">
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="137"/>
-      <c r="AJ11" s="137"/>
-      <c r="AK11" s="137"/>
-      <c r="AL11" s="138"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="68"/>
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="70"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="38"/>
     </row>
     <row r="14" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="139" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="140"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="94" t="s">
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="143"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="48"/>
     </row>
     <row r="15" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="94" t="s">
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="133" t="s">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="134"/>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
-      <c r="AJ15" s="137"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="138"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="68"/>
     </row>
     <row r="16" spans="1:38" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="94" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="123" t="s">
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="77"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="92"/>
     </row>
     <row r="17" spans="1:39" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="70"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="38"/>
     </row>
     <row r="19" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="115"/>
-      <c r="AB19" s="119" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="97" t="s">
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="81"/>
     </row>
     <row r="20" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="113" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="123" t="s">
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="125"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="118"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="96"/>
     </row>
     <row r="21" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="120" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="123" t="s">
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="125"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="118"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="96"/>
     </row>
     <row r="22" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="113" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
-      <c r="AJ22" s="112"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="115"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="78"/>
     </row>
     <row r="23" spans="1:39" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:39" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="70"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="38"/>
     </row>
     <row r="25" spans="1:39" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="87"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="107"/>
+      <c r="AK25" s="107"/>
+      <c r="AL25" s="108"/>
       <c r="AM25" s="6"/>
     </row>
     <row r="26" spans="1:39" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,27 +6347,27 @@
       <c r="D26" s="104"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35" t="s">
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
       <c r="X26" s="104" t="s">
         <v>17</v>
       </c>
@@ -6385,379 +6385,379 @@
       <c r="AH26" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
       <c r="AM26" s="6"/>
     </row>
     <row r="27" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="110" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="88" t="s">
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="90"/>
+      <c r="AI27" s="114"/>
+      <c r="AJ27" s="114"/>
+      <c r="AK27" s="114"/>
+      <c r="AL27" s="115"/>
     </row>
     <row r="28" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="110" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="88" t="s">
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="90"/>
+      <c r="AI28" s="114"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="114"/>
+      <c r="AL28" s="115"/>
     </row>
     <row r="29" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="110" t="s">
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="88" t="s">
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="89"/>
-      <c r="AL29" s="90"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="115"/>
     </row>
     <row r="30" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="110" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="88" t="s">
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="90"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="115"/>
     </row>
     <row r="31" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="110" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="88" t="s">
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AI31" s="89"/>
-      <c r="AJ31" s="89"/>
-      <c r="AK31" s="89"/>
-      <c r="AL31" s="90"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="115"/>
     </row>
     <row r="32" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="110" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="88" t="s">
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AI32" s="89"/>
-      <c r="AJ32" s="89"/>
-      <c r="AK32" s="89"/>
-      <c r="AL32" s="90"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="114"/>
+      <c r="AL32" s="115"/>
     </row>
     <row r="33" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="110" t="s">
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="88" t="s">
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AI33" s="89"/>
-      <c r="AJ33" s="89"/>
-      <c r="AK33" s="89"/>
-      <c r="AL33" s="90"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="115"/>
     </row>
     <row r="34" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="110" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="88" t="s">
+      <c r="AC34" s="112"/>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="112"/>
+      <c r="AF34" s="112"/>
+      <c r="AG34" s="112"/>
+      <c r="AH34" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="90"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="115"/>
     </row>
     <row r="35" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -6800,61 +6800,61 @@
       <c r="AL35" s="9"/>
     </row>
     <row r="36" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="70"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="119"/>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="119"/>
+      <c r="Z36" s="119"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="119"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
+      <c r="AE36" s="119"/>
+      <c r="AF36" s="119"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="38"/>
     </row>
     <row r="37" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
       <c r="L37" s="104" t="s">
         <v>69</v>
       </c>
@@ -6864,43 +6864,43 @@
       <c r="P37" s="104"/>
       <c r="Q37" s="104"/>
       <c r="R37" s="104"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="103" t="s">
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="103"/>
-      <c r="AF37" s="103"/>
-      <c r="AG37" s="106"/>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="106"/>
-      <c r="AJ37" s="106"/>
-      <c r="AK37" s="106"/>
-      <c r="AL37" s="106"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="118"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="118"/>
+      <c r="AK37" s="118"/>
+      <c r="AL37" s="118"/>
     </row>
     <row r="38" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
       <c r="L38" s="104" t="s">
         <v>69</v>
       </c>
@@ -6910,43 +6910,43 @@
       <c r="P38" s="104"/>
       <c r="Q38" s="104"/>
       <c r="R38" s="104"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
-      <c r="V38" s="105"/>
-      <c r="W38" s="105"/>
-      <c r="X38" s="105"/>
-      <c r="Y38" s="105"/>
-      <c r="Z38" s="103" t="s">
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="103"/>
-      <c r="AF38" s="103"/>
-      <c r="AG38" s="106"/>
-      <c r="AH38" s="106"/>
-      <c r="AI38" s="106"/>
-      <c r="AJ38" s="106"/>
-      <c r="AK38" s="106"/>
-      <c r="AL38" s="106"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="118"/>
+      <c r="AI38" s="118"/>
+      <c r="AJ38" s="118"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="118"/>
     </row>
     <row r="39" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
       <c r="L39" s="104" t="s">
         <v>69</v>
       </c>
@@ -6956,28 +6956,28 @@
       <c r="P39" s="104"/>
       <c r="Q39" s="104"/>
       <c r="R39" s="104"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="105"/>
-      <c r="Z39" s="103" t="s">
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="103"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="106"/>
-      <c r="AL39" s="106"/>
+      <c r="AA39" s="116"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="118"/>
+      <c r="AH39" s="118"/>
+      <c r="AI39" s="118"/>
+      <c r="AJ39" s="118"/>
+      <c r="AK39" s="118"/>
+      <c r="AL39" s="118"/>
     </row>
     <row r="40" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -7020,186 +7020,186 @@
       <c r="AL40" s="9"/>
     </row>
     <row r="41" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="69"/>
-      <c r="AL41" s="70"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="38"/>
     </row>
     <row r="42" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="97" t="s">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="100" t="s">
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="102"/>
-      <c r="AH42" s="97" t="s">
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="AI42" s="98"/>
-      <c r="AJ42" s="98"/>
-      <c r="AK42" s="98"/>
-      <c r="AL42" s="99"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="81"/>
     </row>
     <row r="43" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="91" t="s">
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="92" t="s">
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="93"/>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="93"/>
-      <c r="AH43" s="93"/>
-      <c r="AI43" s="93"/>
-      <c r="AJ43" s="93"/>
-      <c r="AK43" s="93"/>
-      <c r="AL43" s="93"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="122"/>
+      <c r="AG43" s="122"/>
+      <c r="AH43" s="122"/>
+      <c r="AI43" s="122"/>
+      <c r="AJ43" s="122"/>
+      <c r="AK43" s="122"/>
+      <c r="AL43" s="122"/>
     </row>
     <row r="44" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="91" t="s">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="92" t="s">
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="93"/>
-      <c r="AF44" s="93"/>
-      <c r="AG44" s="93"/>
-      <c r="AH44" s="93"/>
-      <c r="AI44" s="93"/>
-      <c r="AJ44" s="93"/>
-      <c r="AK44" s="93"/>
-      <c r="AL44" s="93"/>
+      <c r="AA44" s="122"/>
+      <c r="AB44" s="122"/>
+      <c r="AC44" s="122"/>
+      <c r="AD44" s="122"/>
+      <c r="AE44" s="122"/>
+      <c r="AF44" s="122"/>
+      <c r="AG44" s="122"/>
+      <c r="AH44" s="122"/>
+      <c r="AI44" s="122"/>
+      <c r="AJ44" s="122"/>
+      <c r="AK44" s="122"/>
+      <c r="AL44" s="122"/>
     </row>
     <row r="45" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB45" s="6"/>
@@ -7215,228 +7215,228 @@
       <c r="AL45" s="6"/>
     </row>
     <row r="46" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="69"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="69"/>
-      <c r="AC46" s="69"/>
-      <c r="AD46" s="69"/>
-      <c r="AE46" s="69"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="69"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="70"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="38"/>
     </row>
     <row r="47" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="58" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="79"/>
-      <c r="AG47" s="79"/>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="79"/>
-      <c r="AJ47" s="79"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="80"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="124"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="124"/>
+      <c r="AC47" s="124"/>
+      <c r="AD47" s="124"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="125"/>
+      <c r="AG47" s="125"/>
+      <c r="AH47" s="125"/>
+      <c r="AI47" s="125"/>
+      <c r="AJ47" s="125"/>
+      <c r="AK47" s="125"/>
+      <c r="AL47" s="126"/>
     </row>
     <row r="48" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="89"/>
-      <c r="AB48" s="89"/>
-      <c r="AC48" s="89"/>
-      <c r="AD48" s="89"/>
-      <c r="AE48" s="89"/>
-      <c r="AF48" s="89"/>
-      <c r="AG48" s="89"/>
-      <c r="AH48" s="89"/>
-      <c r="AI48" s="89"/>
-      <c r="AJ48" s="89"/>
-      <c r="AK48" s="89"/>
-      <c r="AL48" s="90"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="114"/>
+      <c r="Y48" s="114"/>
+      <c r="Z48" s="114"/>
+      <c r="AA48" s="114"/>
+      <c r="AB48" s="114"/>
+      <c r="AC48" s="114"/>
+      <c r="AD48" s="114"/>
+      <c r="AE48" s="114"/>
+      <c r="AF48" s="114"/>
+      <c r="AG48" s="114"/>
+      <c r="AH48" s="114"/>
+      <c r="AI48" s="114"/>
+      <c r="AJ48" s="114"/>
+      <c r="AK48" s="114"/>
+      <c r="AL48" s="115"/>
     </row>
     <row r="49" spans="1:38" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="82" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="83"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="82" t="s">
+      <c r="M49" s="40"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="91"/>
+      <c r="R49" s="91"/>
+      <c r="S49" s="91"/>
+      <c r="T49" s="91"/>
+      <c r="U49" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="V49" s="83"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="76"/>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="76"/>
-      <c r="AB49" s="76"/>
-      <c r="AC49" s="77"/>
-      <c r="AD49" s="82" t="s">
+      <c r="V49" s="40"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="91"/>
+      <c r="AA49" s="91"/>
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="92"/>
+      <c r="AD49" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AE49" s="83"/>
-      <c r="AF49" s="83"/>
-      <c r="AG49" s="75"/>
-      <c r="AH49" s="76"/>
-      <c r="AI49" s="76"/>
-      <c r="AJ49" s="76"/>
-      <c r="AK49" s="76"/>
-      <c r="AL49" s="77"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="91"/>
+      <c r="AI49" s="91"/>
+      <c r="AJ49" s="91"/>
+      <c r="AK49" s="91"/>
+      <c r="AL49" s="92"/>
     </row>
     <row r="50" spans="1:38" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="82" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M50" s="83"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="82" t="s">
+      <c r="M50" s="40"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="V50" s="83"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="77"/>
-      <c r="AD50" s="82" t="s">
+      <c r="V50" s="40"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="90"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="91"/>
+      <c r="AA50" s="91"/>
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AE50" s="83"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="75"/>
-      <c r="AH50" s="76"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="77"/>
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="40"/>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="91"/>
+      <c r="AI50" s="91"/>
+      <c r="AJ50" s="91"/>
+      <c r="AK50" s="91"/>
+      <c r="AL50" s="92"/>
     </row>
     <row r="51" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -7473,256 +7473,256 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="52" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="69"/>
-      <c r="AF52" s="69"/>
-      <c r="AG52" s="69"/>
-      <c r="AH52" s="69"/>
-      <c r="AI52" s="69"/>
-      <c r="AJ52" s="69"/>
-      <c r="AK52" s="69"/>
-      <c r="AL52" s="70"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
+      <c r="AK52" s="37"/>
+      <c r="AL52" s="38"/>
     </row>
     <row r="53" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
-      <c r="AD53" s="79"/>
-      <c r="AE53" s="79"/>
-      <c r="AF53" s="79"/>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="79"/>
-      <c r="AJ53" s="79"/>
-      <c r="AK53" s="79"/>
-      <c r="AL53" s="80"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="125"/>
+      <c r="U53" s="125"/>
+      <c r="V53" s="125"/>
+      <c r="W53" s="125"/>
+      <c r="X53" s="125"/>
+      <c r="Y53" s="125"/>
+      <c r="Z53" s="125"/>
+      <c r="AA53" s="125"/>
+      <c r="AB53" s="125"/>
+      <c r="AC53" s="125"/>
+      <c r="AD53" s="125"/>
+      <c r="AE53" s="125"/>
+      <c r="AF53" s="125"/>
+      <c r="AG53" s="125"/>
+      <c r="AH53" s="125"/>
+      <c r="AI53" s="125"/>
+      <c r="AJ53" s="125"/>
+      <c r="AK53" s="125"/>
+      <c r="AL53" s="126"/>
     </row>
     <row r="54" spans="1:38" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="64"/>
-      <c r="Y54" s="64"/>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="64"/>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="64"/>
-      <c r="AD54" s="64"/>
-      <c r="AE54" s="64"/>
-      <c r="AF54" s="64"/>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="64"/>
-      <c r="AI54" s="64"/>
-      <c r="AJ54" s="64"/>
-      <c r="AK54" s="64"/>
-      <c r="AL54" s="65"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="128"/>
+      <c r="AC54" s="128"/>
+      <c r="AD54" s="128"/>
+      <c r="AE54" s="128"/>
+      <c r="AF54" s="128"/>
+      <c r="AG54" s="128"/>
+      <c r="AH54" s="128"/>
+      <c r="AI54" s="128"/>
+      <c r="AJ54" s="128"/>
+      <c r="AK54" s="128"/>
+      <c r="AL54" s="129"/>
     </row>
     <row r="55" spans="1:38" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="56"/>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="81"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="130"/>
+      <c r="W55" s="130"/>
+      <c r="X55" s="130"/>
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130"/>
+      <c r="AA55" s="130"/>
+      <c r="AB55" s="130"/>
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130"/>
+      <c r="AE55" s="130"/>
+      <c r="AF55" s="130"/>
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="130"/>
+      <c r="AI55" s="130"/>
+      <c r="AJ55" s="130"/>
+      <c r="AK55" s="130"/>
+      <c r="AL55" s="131"/>
     </row>
     <row r="56" spans="1:38" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
-      <c r="W56" s="64"/>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="64"/>
-      <c r="Z56" s="64"/>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="64"/>
-      <c r="AC56" s="64"/>
-      <c r="AD56" s="64"/>
-      <c r="AE56" s="64"/>
-      <c r="AF56" s="64"/>
-      <c r="AG56" s="64"/>
-      <c r="AH56" s="64"/>
-      <c r="AI56" s="64"/>
-      <c r="AJ56" s="64"/>
-      <c r="AK56" s="64"/>
-      <c r="AL56" s="65"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="128"/>
+      <c r="U56" s="128"/>
+      <c r="V56" s="128"/>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="128"/>
+      <c r="AC56" s="128"/>
+      <c r="AD56" s="128"/>
+      <c r="AE56" s="128"/>
+      <c r="AF56" s="128"/>
+      <c r="AG56" s="128"/>
+      <c r="AH56" s="128"/>
+      <c r="AI56" s="128"/>
+      <c r="AJ56" s="128"/>
+      <c r="AK56" s="128"/>
+      <c r="AL56" s="129"/>
     </row>
     <row r="57" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="66"/>
-      <c r="S57" s="66"/>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="66"/>
-      <c r="AF57" s="66"/>
-      <c r="AG57" s="66"/>
-      <c r="AH57" s="66"/>
-      <c r="AI57" s="66"/>
-      <c r="AJ57" s="66"/>
-      <c r="AK57" s="66"/>
-      <c r="AL57" s="67"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="132"/>
+      <c r="Q57" s="132"/>
+      <c r="R57" s="132"/>
+      <c r="S57" s="132"/>
+      <c r="T57" s="132"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="132"/>
+      <c r="W57" s="132"/>
+      <c r="X57" s="132"/>
+      <c r="Y57" s="132"/>
+      <c r="Z57" s="132"/>
+      <c r="AA57" s="132"/>
+      <c r="AB57" s="132"/>
+      <c r="AC57" s="132"/>
+      <c r="AD57" s="132"/>
+      <c r="AE57" s="132"/>
+      <c r="AF57" s="132"/>
+      <c r="AG57" s="132"/>
+      <c r="AH57" s="132"/>
+      <c r="AI57" s="132"/>
+      <c r="AJ57" s="132"/>
+      <c r="AK57" s="132"/>
+      <c r="AL57" s="133"/>
     </row>
     <row r="58" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -7765,88 +7765,88 @@
       <c r="AL58" s="11"/>
     </row>
     <row r="59" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71"/>
-      <c r="AH59" s="71"/>
-      <c r="AI59" s="71"/>
-      <c r="AJ59" s="71"/>
-      <c r="AK59" s="71"/>
-      <c r="AL59" s="71"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="134"/>
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="134"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="134"/>
+      <c r="U59" s="134"/>
+      <c r="V59" s="134"/>
+      <c r="W59" s="134"/>
+      <c r="X59" s="134"/>
+      <c r="Y59" s="134"/>
+      <c r="Z59" s="134"/>
+      <c r="AA59" s="134"/>
+      <c r="AB59" s="134"/>
+      <c r="AC59" s="134"/>
+      <c r="AD59" s="134"/>
+      <c r="AE59" s="134"/>
+      <c r="AF59" s="134"/>
+      <c r="AG59" s="134"/>
+      <c r="AH59" s="134"/>
+      <c r="AI59" s="134"/>
+      <c r="AJ59" s="134"/>
+      <c r="AK59" s="134"/>
+      <c r="AL59" s="134"/>
     </row>
     <row r="60" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="73"/>
-      <c r="AE60" s="73"/>
-      <c r="AF60" s="73"/>
-      <c r="AG60" s="73"/>
-      <c r="AH60" s="73"/>
-      <c r="AI60" s="73"/>
-      <c r="AJ60" s="73"/>
-      <c r="AK60" s="73"/>
-      <c r="AL60" s="74"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="136"/>
+      <c r="L60" s="136"/>
+      <c r="M60" s="136"/>
+      <c r="N60" s="136"/>
+      <c r="O60" s="136"/>
+      <c r="P60" s="136"/>
+      <c r="Q60" s="136"/>
+      <c r="R60" s="136"/>
+      <c r="S60" s="136"/>
+      <c r="T60" s="136"/>
+      <c r="U60" s="136"/>
+      <c r="V60" s="136"/>
+      <c r="W60" s="136"/>
+      <c r="X60" s="136"/>
+      <c r="Y60" s="136"/>
+      <c r="Z60" s="136"/>
+      <c r="AA60" s="136"/>
+      <c r="AB60" s="136"/>
+      <c r="AC60" s="136"/>
+      <c r="AD60" s="136"/>
+      <c r="AE60" s="136"/>
+      <c r="AF60" s="136"/>
+      <c r="AG60" s="136"/>
+      <c r="AH60" s="136"/>
+      <c r="AI60" s="136"/>
+      <c r="AJ60" s="136"/>
+      <c r="AK60" s="136"/>
+      <c r="AL60" s="137"/>
     </row>
     <row r="61" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
@@ -7889,550 +7889,550 @@
       <c r="AL61" s="5"/>
     </row>
     <row r="62" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="69"/>
-      <c r="AC62" s="69"/>
-      <c r="AD62" s="69"/>
-      <c r="AE62" s="69"/>
-      <c r="AF62" s="69"/>
-      <c r="AG62" s="69"/>
-      <c r="AH62" s="69"/>
-      <c r="AI62" s="69"/>
-      <c r="AJ62" s="69"/>
-      <c r="AK62" s="69"/>
-      <c r="AL62" s="70"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="37"/>
+      <c r="AJ62" s="37"/>
+      <c r="AK62" s="37"/>
+      <c r="AL62" s="38"/>
     </row>
     <row r="63" spans="1:38" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
-      <c r="AD63" s="59"/>
-      <c r="AE63" s="59"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="59"/>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="60"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="124"/>
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+      <c r="Q63" s="124"/>
+      <c r="R63" s="124"/>
+      <c r="S63" s="124"/>
+      <c r="T63" s="124"/>
+      <c r="U63" s="124"/>
+      <c r="V63" s="124"/>
+      <c r="W63" s="124"/>
+      <c r="X63" s="124"/>
+      <c r="Y63" s="124"/>
+      <c r="Z63" s="124"/>
+      <c r="AA63" s="124"/>
+      <c r="AB63" s="124"/>
+      <c r="AC63" s="124"/>
+      <c r="AD63" s="124"/>
+      <c r="AE63" s="124"/>
+      <c r="AF63" s="124"/>
+      <c r="AG63" s="124"/>
+      <c r="AH63" s="124"/>
+      <c r="AI63" s="124"/>
+      <c r="AJ63" s="124"/>
+      <c r="AK63" s="124"/>
+      <c r="AL63" s="138"/>
     </row>
     <row r="64" spans="1:38" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="64"/>
-      <c r="V64" s="64"/>
-      <c r="W64" s="64"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="64"/>
-      <c r="Z64" s="64"/>
-      <c r="AA64" s="64"/>
-      <c r="AB64" s="64"/>
-      <c r="AC64" s="64"/>
-      <c r="AD64" s="64"/>
-      <c r="AE64" s="64"/>
-      <c r="AF64" s="64"/>
-      <c r="AG64" s="64"/>
-      <c r="AH64" s="64"/>
-      <c r="AI64" s="64"/>
-      <c r="AJ64" s="64"/>
-      <c r="AK64" s="64"/>
-      <c r="AL64" s="65"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="128"/>
+      <c r="S64" s="128"/>
+      <c r="T64" s="128"/>
+      <c r="U64" s="128"/>
+      <c r="V64" s="128"/>
+      <c r="W64" s="128"/>
+      <c r="X64" s="128"/>
+      <c r="Y64" s="128"/>
+      <c r="Z64" s="128"/>
+      <c r="AA64" s="128"/>
+      <c r="AB64" s="128"/>
+      <c r="AC64" s="128"/>
+      <c r="AD64" s="128"/>
+      <c r="AE64" s="128"/>
+      <c r="AF64" s="128"/>
+      <c r="AG64" s="128"/>
+      <c r="AH64" s="128"/>
+      <c r="AI64" s="128"/>
+      <c r="AJ64" s="128"/>
+      <c r="AK64" s="128"/>
+      <c r="AL64" s="129"/>
     </row>
     <row r="65" spans="1:38" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="64"/>
-      <c r="Z65" s="64"/>
-      <c r="AA65" s="64"/>
-      <c r="AB65" s="64"/>
-      <c r="AC65" s="64"/>
-      <c r="AD65" s="64"/>
-      <c r="AE65" s="64"/>
-      <c r="AF65" s="64"/>
-      <c r="AG65" s="64"/>
-      <c r="AH65" s="64"/>
-      <c r="AI65" s="64"/>
-      <c r="AJ65" s="64"/>
-      <c r="AK65" s="64"/>
-      <c r="AL65" s="65"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="128"/>
+      <c r="N65" s="128"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="128"/>
+      <c r="Q65" s="128"/>
+      <c r="R65" s="128"/>
+      <c r="S65" s="128"/>
+      <c r="T65" s="128"/>
+      <c r="U65" s="128"/>
+      <c r="V65" s="128"/>
+      <c r="W65" s="128"/>
+      <c r="X65" s="128"/>
+      <c r="Y65" s="128"/>
+      <c r="Z65" s="128"/>
+      <c r="AA65" s="128"/>
+      <c r="AB65" s="128"/>
+      <c r="AC65" s="128"/>
+      <c r="AD65" s="128"/>
+      <c r="AE65" s="128"/>
+      <c r="AF65" s="128"/>
+      <c r="AG65" s="128"/>
+      <c r="AH65" s="128"/>
+      <c r="AI65" s="128"/>
+      <c r="AJ65" s="128"/>
+      <c r="AK65" s="128"/>
+      <c r="AL65" s="129"/>
     </row>
     <row r="66" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="64"/>
-      <c r="AC66" s="64"/>
-      <c r="AD66" s="64"/>
-      <c r="AE66" s="64"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="64"/>
-      <c r="AH66" s="64"/>
-      <c r="AI66" s="64"/>
-      <c r="AJ66" s="64"/>
-      <c r="AK66" s="64"/>
-      <c r="AL66" s="65"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
+      <c r="Y66" s="128"/>
+      <c r="Z66" s="128"/>
+      <c r="AA66" s="128"/>
+      <c r="AB66" s="128"/>
+      <c r="AC66" s="128"/>
+      <c r="AD66" s="128"/>
+      <c r="AE66" s="128"/>
+      <c r="AF66" s="128"/>
+      <c r="AG66" s="128"/>
+      <c r="AH66" s="128"/>
+      <c r="AI66" s="128"/>
+      <c r="AJ66" s="128"/>
+      <c r="AK66" s="128"/>
+      <c r="AL66" s="129"/>
     </row>
     <row r="67" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="64"/>
-      <c r="Z67" s="64"/>
-      <c r="AA67" s="64"/>
-      <c r="AB67" s="64"/>
-      <c r="AC67" s="64"/>
-      <c r="AD67" s="64"/>
-      <c r="AE67" s="64"/>
-      <c r="AF67" s="64"/>
-      <c r="AG67" s="64"/>
-      <c r="AH67" s="64"/>
-      <c r="AI67" s="64"/>
-      <c r="AJ67" s="64"/>
-      <c r="AK67" s="64"/>
-      <c r="AL67" s="65"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
+      <c r="Q67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="128"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="128"/>
+      <c r="W67" s="128"/>
+      <c r="X67" s="128"/>
+      <c r="Y67" s="128"/>
+      <c r="Z67" s="128"/>
+      <c r="AA67" s="128"/>
+      <c r="AB67" s="128"/>
+      <c r="AC67" s="128"/>
+      <c r="AD67" s="128"/>
+      <c r="AE67" s="128"/>
+      <c r="AF67" s="128"/>
+      <c r="AG67" s="128"/>
+      <c r="AH67" s="128"/>
+      <c r="AI67" s="128"/>
+      <c r="AJ67" s="128"/>
+      <c r="AK67" s="128"/>
+      <c r="AL67" s="129"/>
     </row>
     <row r="68" spans="1:38" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
-      <c r="O68" s="64"/>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="64"/>
-      <c r="S68" s="64"/>
-      <c r="T68" s="64"/>
-      <c r="U68" s="64"/>
-      <c r="V68" s="64"/>
-      <c r="W68" s="64"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="64"/>
-      <c r="Z68" s="64"/>
-      <c r="AA68" s="64"/>
-      <c r="AB68" s="64"/>
-      <c r="AC68" s="64"/>
-      <c r="AD68" s="64"/>
-      <c r="AE68" s="64"/>
-      <c r="AF68" s="64"/>
-      <c r="AG68" s="64"/>
-      <c r="AH68" s="64"/>
-      <c r="AI68" s="64"/>
-      <c r="AJ68" s="64"/>
-      <c r="AK68" s="64"/>
-      <c r="AL68" s="65"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
+      <c r="Q68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="128"/>
+      <c r="T68" s="128"/>
+      <c r="U68" s="128"/>
+      <c r="V68" s="128"/>
+      <c r="W68" s="128"/>
+      <c r="X68" s="128"/>
+      <c r="Y68" s="128"/>
+      <c r="Z68" s="128"/>
+      <c r="AA68" s="128"/>
+      <c r="AB68" s="128"/>
+      <c r="AC68" s="128"/>
+      <c r="AD68" s="128"/>
+      <c r="AE68" s="128"/>
+      <c r="AF68" s="128"/>
+      <c r="AG68" s="128"/>
+      <c r="AH68" s="128"/>
+      <c r="AI68" s="128"/>
+      <c r="AJ68" s="128"/>
+      <c r="AK68" s="128"/>
+      <c r="AL68" s="129"/>
     </row>
     <row r="69" spans="1:38" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
-      <c r="O69" s="64"/>
-      <c r="P69" s="64"/>
-      <c r="Q69" s="64"/>
-      <c r="R69" s="64"/>
-      <c r="S69" s="64"/>
-      <c r="T69" s="64"/>
-      <c r="U69" s="64"/>
-      <c r="V69" s="64"/>
-      <c r="W69" s="64"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="64"/>
-      <c r="Z69" s="64"/>
-      <c r="AA69" s="64"/>
-      <c r="AB69" s="64"/>
-      <c r="AC69" s="64"/>
-      <c r="AD69" s="64"/>
-      <c r="AE69" s="64"/>
-      <c r="AF69" s="64"/>
-      <c r="AG69" s="64"/>
-      <c r="AH69" s="64"/>
-      <c r="AI69" s="64"/>
-      <c r="AJ69" s="64"/>
-      <c r="AK69" s="64"/>
-      <c r="AL69" s="65"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="128"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="128"/>
+      <c r="Q69" s="128"/>
+      <c r="R69" s="128"/>
+      <c r="S69" s="128"/>
+      <c r="T69" s="128"/>
+      <c r="U69" s="128"/>
+      <c r="V69" s="128"/>
+      <c r="W69" s="128"/>
+      <c r="X69" s="128"/>
+      <c r="Y69" s="128"/>
+      <c r="Z69" s="128"/>
+      <c r="AA69" s="128"/>
+      <c r="AB69" s="128"/>
+      <c r="AC69" s="128"/>
+      <c r="AD69" s="128"/>
+      <c r="AE69" s="128"/>
+      <c r="AF69" s="128"/>
+      <c r="AG69" s="128"/>
+      <c r="AH69" s="128"/>
+      <c r="AI69" s="128"/>
+      <c r="AJ69" s="128"/>
+      <c r="AK69" s="128"/>
+      <c r="AL69" s="129"/>
     </row>
     <row r="70" spans="1:38" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
-      <c r="O70" s="64"/>
-      <c r="P70" s="64"/>
-      <c r="Q70" s="64"/>
-      <c r="R70" s="64"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="64"/>
-      <c r="U70" s="64"/>
-      <c r="V70" s="64"/>
-      <c r="W70" s="64"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="64"/>
-      <c r="Z70" s="64"/>
-      <c r="AA70" s="64"/>
-      <c r="AB70" s="64"/>
-      <c r="AC70" s="64"/>
-      <c r="AD70" s="64"/>
-      <c r="AE70" s="64"/>
-      <c r="AF70" s="64"/>
-      <c r="AG70" s="64"/>
-      <c r="AH70" s="64"/>
-      <c r="AI70" s="64"/>
-      <c r="AJ70" s="64"/>
-      <c r="AK70" s="64"/>
-      <c r="AL70" s="65"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="128"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="128"/>
+      <c r="R70" s="128"/>
+      <c r="S70" s="128"/>
+      <c r="T70" s="128"/>
+      <c r="U70" s="128"/>
+      <c r="V70" s="128"/>
+      <c r="W70" s="128"/>
+      <c r="X70" s="128"/>
+      <c r="Y70" s="128"/>
+      <c r="Z70" s="128"/>
+      <c r="AA70" s="128"/>
+      <c r="AB70" s="128"/>
+      <c r="AC70" s="128"/>
+      <c r="AD70" s="128"/>
+      <c r="AE70" s="128"/>
+      <c r="AF70" s="128"/>
+      <c r="AG70" s="128"/>
+      <c r="AH70" s="128"/>
+      <c r="AI70" s="128"/>
+      <c r="AJ70" s="128"/>
+      <c r="AK70" s="128"/>
+      <c r="AL70" s="129"/>
     </row>
     <row r="71" spans="1:38" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="64"/>
-      <c r="R71" s="64"/>
-      <c r="S71" s="64"/>
-      <c r="T71" s="64"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="64"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="64"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="64"/>
-      <c r="AD71" s="64"/>
-      <c r="AE71" s="64"/>
-      <c r="AF71" s="64"/>
-      <c r="AG71" s="64"/>
-      <c r="AH71" s="64"/>
-      <c r="AI71" s="64"/>
-      <c r="AJ71" s="64"/>
-      <c r="AK71" s="64"/>
-      <c r="AL71" s="65"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="128"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128"/>
+      <c r="R71" s="128"/>
+      <c r="S71" s="128"/>
+      <c r="T71" s="128"/>
+      <c r="U71" s="128"/>
+      <c r="V71" s="128"/>
+      <c r="W71" s="128"/>
+      <c r="X71" s="128"/>
+      <c r="Y71" s="128"/>
+      <c r="Z71" s="128"/>
+      <c r="AA71" s="128"/>
+      <c r="AB71" s="128"/>
+      <c r="AC71" s="128"/>
+      <c r="AD71" s="128"/>
+      <c r="AE71" s="128"/>
+      <c r="AF71" s="128"/>
+      <c r="AG71" s="128"/>
+      <c r="AH71" s="128"/>
+      <c r="AI71" s="128"/>
+      <c r="AJ71" s="128"/>
+      <c r="AK71" s="128"/>
+      <c r="AL71" s="129"/>
     </row>
     <row r="72" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-      <c r="S72" s="64"/>
-      <c r="T72" s="64"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="64"/>
-      <c r="W72" s="64"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="64"/>
-      <c r="Z72" s="64"/>
-      <c r="AA72" s="64"/>
-      <c r="AB72" s="64"/>
-      <c r="AC72" s="64"/>
-      <c r="AD72" s="64"/>
-      <c r="AE72" s="64"/>
-      <c r="AF72" s="64"/>
-      <c r="AG72" s="64"/>
-      <c r="AH72" s="64"/>
-      <c r="AI72" s="64"/>
-      <c r="AJ72" s="64"/>
-      <c r="AK72" s="64"/>
-      <c r="AL72" s="65"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="128"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="128"/>
+      <c r="T72" s="128"/>
+      <c r="U72" s="128"/>
+      <c r="V72" s="128"/>
+      <c r="W72" s="128"/>
+      <c r="X72" s="128"/>
+      <c r="Y72" s="128"/>
+      <c r="Z72" s="128"/>
+      <c r="AA72" s="128"/>
+      <c r="AB72" s="128"/>
+      <c r="AC72" s="128"/>
+      <c r="AD72" s="128"/>
+      <c r="AE72" s="128"/>
+      <c r="AF72" s="128"/>
+      <c r="AG72" s="128"/>
+      <c r="AH72" s="128"/>
+      <c r="AI72" s="128"/>
+      <c r="AJ72" s="128"/>
+      <c r="AK72" s="128"/>
+      <c r="AL72" s="129"/>
     </row>
     <row r="73" spans="1:38" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="64"/>
-      <c r="R73" s="64"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="64"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="64"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="64"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="64"/>
-      <c r="AD73" s="64"/>
-      <c r="AE73" s="64"/>
-      <c r="AF73" s="64"/>
-      <c r="AG73" s="64"/>
-      <c r="AH73" s="64"/>
-      <c r="AI73" s="64"/>
-      <c r="AJ73" s="64"/>
-      <c r="AK73" s="64"/>
-      <c r="AL73" s="65"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
+      <c r="T73" s="128"/>
+      <c r="U73" s="128"/>
+      <c r="V73" s="128"/>
+      <c r="W73" s="128"/>
+      <c r="X73" s="128"/>
+      <c r="Y73" s="128"/>
+      <c r="Z73" s="128"/>
+      <c r="AA73" s="128"/>
+      <c r="AB73" s="128"/>
+      <c r="AC73" s="128"/>
+      <c r="AD73" s="128"/>
+      <c r="AE73" s="128"/>
+      <c r="AF73" s="128"/>
+      <c r="AG73" s="128"/>
+      <c r="AH73" s="128"/>
+      <c r="AI73" s="128"/>
+      <c r="AJ73" s="128"/>
+      <c r="AK73" s="128"/>
+      <c r="AL73" s="129"/>
     </row>
     <row r="74" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="66"/>
-      <c r="AB74" s="66"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
-      <c r="AG74" s="66"/>
-      <c r="AH74" s="66"/>
-      <c r="AI74" s="66"/>
-      <c r="AJ74" s="66"/>
-      <c r="AK74" s="66"/>
-      <c r="AL74" s="67"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="132"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
+      <c r="S74" s="132"/>
+      <c r="T74" s="132"/>
+      <c r="U74" s="132"/>
+      <c r="V74" s="132"/>
+      <c r="W74" s="132"/>
+      <c r="X74" s="132"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
+      <c r="AB74" s="132"/>
+      <c r="AC74" s="132"/>
+      <c r="AD74" s="132"/>
+      <c r="AE74" s="132"/>
+      <c r="AF74" s="132"/>
+      <c r="AG74" s="132"/>
+      <c r="AH74" s="132"/>
+      <c r="AI74" s="132"/>
+      <c r="AJ74" s="132"/>
+      <c r="AK74" s="132"/>
+      <c r="AL74" s="133"/>
     </row>
     <row r="75" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
@@ -8475,88 +8475,88 @@
       <c r="AL75" s="18"/>
     </row>
     <row r="76" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="69"/>
-      <c r="R76" s="69"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="69"/>
-      <c r="W76" s="69"/>
-      <c r="X76" s="69"/>
-      <c r="Y76" s="69"/>
-      <c r="Z76" s="69"/>
-      <c r="AA76" s="69"/>
-      <c r="AB76" s="69"/>
-      <c r="AC76" s="69"/>
-      <c r="AD76" s="69"/>
-      <c r="AE76" s="69"/>
-      <c r="AF76" s="69"/>
-      <c r="AG76" s="69"/>
-      <c r="AH76" s="69"/>
-      <c r="AI76" s="69"/>
-      <c r="AJ76" s="69"/>
-      <c r="AK76" s="69"/>
-      <c r="AL76" s="70"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+      <c r="AA76" s="37"/>
+      <c r="AB76" s="37"/>
+      <c r="AC76" s="37"/>
+      <c r="AD76" s="37"/>
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="37"/>
+      <c r="AG76" s="37"/>
+      <c r="AH76" s="37"/>
+      <c r="AI76" s="37"/>
+      <c r="AJ76" s="37"/>
+      <c r="AK76" s="37"/>
+      <c r="AL76" s="38"/>
     </row>
     <row r="77" spans="1:38" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-      <c r="AA77" s="59"/>
-      <c r="AB77" s="59"/>
-      <c r="AC77" s="59"/>
-      <c r="AD77" s="59"/>
-      <c r="AE77" s="59"/>
-      <c r="AF77" s="59"/>
-      <c r="AG77" s="59"/>
-      <c r="AH77" s="59"/>
-      <c r="AI77" s="59"/>
-      <c r="AJ77" s="59"/>
-      <c r="AK77" s="59"/>
-      <c r="AL77" s="60"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="124"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="124"/>
+      <c r="J77" s="124"/>
+      <c r="K77" s="124"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="124"/>
+      <c r="N77" s="124"/>
+      <c r="O77" s="124"/>
+      <c r="P77" s="124"/>
+      <c r="Q77" s="124"/>
+      <c r="R77" s="124"/>
+      <c r="S77" s="124"/>
+      <c r="T77" s="124"/>
+      <c r="U77" s="124"/>
+      <c r="V77" s="124"/>
+      <c r="W77" s="124"/>
+      <c r="X77" s="124"/>
+      <c r="Y77" s="124"/>
+      <c r="Z77" s="124"/>
+      <c r="AA77" s="124"/>
+      <c r="AB77" s="124"/>
+      <c r="AC77" s="124"/>
+      <c r="AD77" s="124"/>
+      <c r="AE77" s="124"/>
+      <c r="AF77" s="124"/>
+      <c r="AG77" s="124"/>
+      <c r="AH77" s="124"/>
+      <c r="AI77" s="124"/>
+      <c r="AJ77" s="124"/>
+      <c r="AK77" s="124"/>
+      <c r="AL77" s="138"/>
     </row>
     <row r="78" spans="1:38" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
@@ -8800,34 +8800,34 @@
     </row>
     <row r="84" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="139"/>
+      <c r="M84" s="139"/>
+      <c r="N84" s="139"/>
+      <c r="O84" s="139"/>
       <c r="P84" s="14"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="61"/>
-      <c r="U84" s="61"/>
-      <c r="V84" s="61"/>
-      <c r="X84" s="61"/>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="61"/>
-      <c r="AA84" s="61"/>
-      <c r="AB84" s="61"/>
-      <c r="AC84" s="61"/>
-      <c r="AD84" s="61"/>
+      <c r="Q84" s="139"/>
+      <c r="R84" s="139"/>
+      <c r="S84" s="139"/>
+      <c r="T84" s="139"/>
+      <c r="U84" s="139"/>
+      <c r="V84" s="139"/>
+      <c r="X84" s="139"/>
+      <c r="Y84" s="139"/>
+      <c r="Z84" s="139"/>
+      <c r="AA84" s="139"/>
+      <c r="AB84" s="139"/>
+      <c r="AC84" s="139"/>
+      <c r="AD84" s="139"/>
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
       <c r="AG84" s="6"/>
@@ -8839,40 +8839,40 @@
     </row>
     <row r="85" spans="1:38" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="63" t="s">
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="140"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="140"/>
+      <c r="O85" s="140"/>
+      <c r="P85" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="Q85" s="63"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="63"/>
-      <c r="T85" s="63"/>
-      <c r="U85" s="63"/>
-      <c r="V85" s="63"/>
-      <c r="X85" s="63" t="s">
+      <c r="Q85" s="141"/>
+      <c r="R85" s="141"/>
+      <c r="S85" s="141"/>
+      <c r="T85" s="141"/>
+      <c r="U85" s="141"/>
+      <c r="V85" s="141"/>
+      <c r="X85" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="Y85" s="63"/>
-      <c r="Z85" s="63"/>
-      <c r="AA85" s="63"/>
-      <c r="AB85" s="63"/>
-      <c r="AC85" s="63"/>
-      <c r="AD85" s="63"/>
+      <c r="Y85" s="141"/>
+      <c r="Z85" s="141"/>
+      <c r="AA85" s="141"/>
+      <c r="AB85" s="141"/>
+      <c r="AC85" s="141"/>
+      <c r="AD85" s="141"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
@@ -8884,46 +8884,46 @@
     </row>
     <row r="86" spans="1:38" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="54"/>
-      <c r="W87" s="54"/>
-      <c r="X87" s="54"/>
-      <c r="Y87" s="54"/>
-      <c r="Z87" s="54"/>
-      <c r="AA87" s="54"/>
-      <c r="AB87" s="54"/>
-      <c r="AC87" s="54"/>
-      <c r="AD87" s="54"/>
-      <c r="AE87" s="54"/>
-      <c r="AF87" s="54"/>
-      <c r="AG87" s="54"/>
-      <c r="AH87" s="54"/>
-      <c r="AI87" s="54"/>
-      <c r="AJ87" s="54"/>
-      <c r="AK87" s="54"/>
-      <c r="AL87" s="55"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="145"/>
+      <c r="F87" s="145"/>
+      <c r="G87" s="145"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="145"/>
+      <c r="J87" s="145"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="145"/>
+      <c r="M87" s="145"/>
+      <c r="N87" s="145"/>
+      <c r="O87" s="145"/>
+      <c r="P87" s="145"/>
+      <c r="Q87" s="145"/>
+      <c r="R87" s="145"/>
+      <c r="S87" s="145"/>
+      <c r="T87" s="145"/>
+      <c r="U87" s="145"/>
+      <c r="V87" s="145"/>
+      <c r="W87" s="145"/>
+      <c r="X87" s="145"/>
+      <c r="Y87" s="145"/>
+      <c r="Z87" s="145"/>
+      <c r="AA87" s="145"/>
+      <c r="AB87" s="145"/>
+      <c r="AC87" s="145"/>
+      <c r="AD87" s="145"/>
+      <c r="AE87" s="145"/>
+      <c r="AF87" s="145"/>
+      <c r="AG87" s="145"/>
+      <c r="AH87" s="145"/>
+      <c r="AI87" s="145"/>
+      <c r="AJ87" s="145"/>
+      <c r="AK87" s="145"/>
+      <c r="AL87" s="146"/>
     </row>
     <row r="88" spans="1:38" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -8931,105 +8931,105 @@
     </row>
     <row r="89" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="W89" s="56" t="s">
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="130"/>
+      <c r="O89" s="130"/>
+      <c r="P89" s="130"/>
+      <c r="Q89" s="130"/>
+      <c r="R89" s="130"/>
+      <c r="W89" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="56"/>
-      <c r="AG89" s="56"/>
-      <c r="AH89" s="56"/>
-      <c r="AI89" s="56"/>
-      <c r="AJ89" s="56"/>
-      <c r="AK89" s="56"/>
+      <c r="X89" s="130"/>
+      <c r="Y89" s="130"/>
+      <c r="Z89" s="130"/>
+      <c r="AA89" s="130"/>
+      <c r="AB89" s="130"/>
+      <c r="AC89" s="130"/>
+      <c r="AD89" s="130"/>
+      <c r="AE89" s="130"/>
+      <c r="AF89" s="130"/>
+      <c r="AG89" s="130"/>
+      <c r="AH89" s="130"/>
+      <c r="AI89" s="130"/>
+      <c r="AJ89" s="130"/>
+      <c r="AK89" s="130"/>
       <c r="AL89" s="21"/>
     </row>
     <row r="90" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="56"/>
-      <c r="W90" s="56" t="s">
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="130"/>
+      <c r="O90" s="130"/>
+      <c r="P90" s="130"/>
+      <c r="Q90" s="130"/>
+      <c r="R90" s="130"/>
+      <c r="W90" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="X90" s="56"/>
-      <c r="Y90" s="56"/>
-      <c r="Z90" s="56"/>
-      <c r="AA90" s="56"/>
-      <c r="AB90" s="56"/>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="56"/>
-      <c r="AE90" s="56"/>
-      <c r="AF90" s="56"/>
-      <c r="AG90" s="56"/>
-      <c r="AH90" s="56"/>
-      <c r="AI90" s="56"/>
-      <c r="AJ90" s="56"/>
-      <c r="AK90" s="56"/>
+      <c r="X90" s="130"/>
+      <c r="Y90" s="130"/>
+      <c r="Z90" s="130"/>
+      <c r="AA90" s="130"/>
+      <c r="AB90" s="130"/>
+      <c r="AC90" s="130"/>
+      <c r="AD90" s="130"/>
+      <c r="AE90" s="130"/>
+      <c r="AF90" s="130"/>
+      <c r="AG90" s="130"/>
+      <c r="AH90" s="130"/>
+      <c r="AI90" s="130"/>
+      <c r="AJ90" s="130"/>
+      <c r="AK90" s="130"/>
       <c r="AL90" s="21"/>
     </row>
     <row r="91" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="57"/>
-      <c r="M91" s="57"/>
-      <c r="N91" s="57"/>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="57"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="147"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="147"/>
+      <c r="K91" s="147"/>
+      <c r="L91" s="147"/>
+      <c r="M91" s="147"/>
+      <c r="N91" s="147"/>
+      <c r="O91" s="147"/>
+      <c r="P91" s="147"/>
+      <c r="Q91" s="147"/>
+      <c r="R91" s="147"/>
       <c r="S91" s="23"/>
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
@@ -9092,788 +9092,788 @@
       <c r="AL92" s="24"/>
     </row>
     <row r="93" spans="1:38" s="4" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AD93" s="30"/>
-      <c r="AE93" s="30"/>
-      <c r="AF93" s="30"/>
-      <c r="AG93" s="30"/>
-      <c r="AH93" s="30"/>
-      <c r="AI93" s="30"/>
-      <c r="AJ93" s="30"/>
-      <c r="AK93" s="30"/>
-      <c r="AL93" s="30"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="142"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="142"/>
+      <c r="J93" s="142"/>
+      <c r="K93" s="142"/>
+      <c r="L93" s="142"/>
+      <c r="M93" s="142"/>
+      <c r="N93" s="142"/>
+      <c r="O93" s="142"/>
+      <c r="P93" s="142"/>
+      <c r="Q93" s="142"/>
+      <c r="R93" s="142"/>
+      <c r="S93" s="142"/>
+      <c r="T93" s="142"/>
+      <c r="U93" s="142"/>
+      <c r="V93" s="142"/>
+      <c r="W93" s="142"/>
+      <c r="X93" s="142"/>
+      <c r="Y93" s="142"/>
+      <c r="Z93" s="142"/>
+      <c r="AA93" s="142"/>
+      <c r="AB93" s="142"/>
+      <c r="AC93" s="142"/>
+      <c r="AD93" s="142"/>
+      <c r="AE93" s="142"/>
+      <c r="AF93" s="142"/>
+      <c r="AG93" s="142"/>
+      <c r="AH93" s="142"/>
+      <c r="AI93" s="142"/>
+      <c r="AJ93" s="142"/>
+      <c r="AK93" s="142"/>
+      <c r="AL93" s="142"/>
     </row>
     <row r="94" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="52"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
-      <c r="T94" s="52"/>
-      <c r="U94" s="52"/>
-      <c r="V94" s="52"/>
-      <c r="W94" s="52"/>
-      <c r="X94" s="52"/>
-      <c r="Y94" s="52"/>
-      <c r="Z94" s="52"/>
-      <c r="AA94" s="52"/>
-      <c r="AB94" s="52"/>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
-      <c r="AH94" s="52"/>
-      <c r="AI94" s="52"/>
-      <c r="AJ94" s="52"/>
-      <c r="AK94" s="52"/>
-      <c r="AL94" s="52"/>
+      <c r="B94" s="143"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="143"/>
+      <c r="F94" s="143"/>
+      <c r="G94" s="143"/>
+      <c r="H94" s="143"/>
+      <c r="I94" s="143"/>
+      <c r="J94" s="143"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="143"/>
+      <c r="M94" s="143"/>
+      <c r="N94" s="143"/>
+      <c r="O94" s="143"/>
+      <c r="P94" s="143"/>
+      <c r="Q94" s="143"/>
+      <c r="R94" s="143"/>
+      <c r="S94" s="143"/>
+      <c r="T94" s="143"/>
+      <c r="U94" s="143"/>
+      <c r="V94" s="143"/>
+      <c r="W94" s="143"/>
+      <c r="X94" s="143"/>
+      <c r="Y94" s="143"/>
+      <c r="Z94" s="143"/>
+      <c r="AA94" s="143"/>
+      <c r="AB94" s="143"/>
+      <c r="AC94" s="143"/>
+      <c r="AD94" s="143"/>
+      <c r="AE94" s="143"/>
+      <c r="AF94" s="143"/>
+      <c r="AG94" s="143"/>
+      <c r="AH94" s="143"/>
+      <c r="AI94" s="143"/>
+      <c r="AJ94" s="143"/>
+      <c r="AK94" s="143"/>
+      <c r="AL94" s="143"/>
     </row>
     <row r="95" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="52"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="52"/>
-      <c r="S95" s="52"/>
-      <c r="T95" s="52"/>
-      <c r="U95" s="52"/>
-      <c r="V95" s="52"/>
-      <c r="W95" s="52"/>
-      <c r="X95" s="52"/>
-      <c r="Y95" s="52"/>
-      <c r="Z95" s="52"/>
-      <c r="AA95" s="52"/>
-      <c r="AB95" s="52"/>
-      <c r="AC95" s="52"/>
-      <c r="AD95" s="52"/>
-      <c r="AE95" s="52"/>
-      <c r="AF95" s="52"/>
-      <c r="AG95" s="52"/>
-      <c r="AH95" s="52"/>
-      <c r="AI95" s="52"/>
-      <c r="AJ95" s="52"/>
-      <c r="AK95" s="52"/>
-      <c r="AL95" s="52"/>
+      <c r="A95" s="143"/>
+      <c r="B95" s="143"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="143"/>
+      <c r="E95" s="143"/>
+      <c r="F95" s="143"/>
+      <c r="G95" s="143"/>
+      <c r="H95" s="143"/>
+      <c r="I95" s="143"/>
+      <c r="J95" s="143"/>
+      <c r="K95" s="143"/>
+      <c r="L95" s="143"/>
+      <c r="M95" s="143"/>
+      <c r="N95" s="143"/>
+      <c r="O95" s="143"/>
+      <c r="P95" s="143"/>
+      <c r="Q95" s="143"/>
+      <c r="R95" s="143"/>
+      <c r="S95" s="143"/>
+      <c r="T95" s="143"/>
+      <c r="U95" s="143"/>
+      <c r="V95" s="143"/>
+      <c r="W95" s="143"/>
+      <c r="X95" s="143"/>
+      <c r="Y95" s="143"/>
+      <c r="Z95" s="143"/>
+      <c r="AA95" s="143"/>
+      <c r="AB95" s="143"/>
+      <c r="AC95" s="143"/>
+      <c r="AD95" s="143"/>
+      <c r="AE95" s="143"/>
+      <c r="AF95" s="143"/>
+      <c r="AG95" s="143"/>
+      <c r="AH95" s="143"/>
+      <c r="AI95" s="143"/>
+      <c r="AJ95" s="143"/>
+      <c r="AK95" s="143"/>
+      <c r="AL95" s="143"/>
     </row>
     <row r="96" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="33"/>
-      <c r="R96" s="33"/>
-      <c r="S96" s="33"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="33"/>
-      <c r="V96" s="33"/>
-      <c r="W96" s="33"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="46" t="s">
+      <c r="B96" s="121"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="144"/>
+      <c r="K96" s="144"/>
+      <c r="L96" s="144"/>
+      <c r="M96" s="144"/>
+      <c r="N96" s="144"/>
+      <c r="O96" s="144"/>
+      <c r="P96" s="144"/>
+      <c r="Q96" s="144"/>
+      <c r="R96" s="144"/>
+      <c r="S96" s="144"/>
+      <c r="T96" s="144"/>
+      <c r="U96" s="144"/>
+      <c r="V96" s="144"/>
+      <c r="W96" s="144"/>
+      <c r="X96" s="144"/>
+      <c r="Y96" s="144"/>
+      <c r="Z96" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AA96" s="47"/>
-      <c r="AB96" s="47"/>
-      <c r="AC96" s="47"/>
-      <c r="AD96" s="47"/>
-      <c r="AE96" s="47"/>
-      <c r="AF96" s="47"/>
-      <c r="AG96" s="47"/>
-      <c r="AH96" s="47"/>
-      <c r="AI96" s="47"/>
-      <c r="AJ96" s="47"/>
-      <c r="AK96" s="47"/>
-      <c r="AL96" s="48"/>
+      <c r="AA96" s="152"/>
+      <c r="AB96" s="152"/>
+      <c r="AC96" s="152"/>
+      <c r="AD96" s="152"/>
+      <c r="AE96" s="152"/>
+      <c r="AF96" s="152"/>
+      <c r="AG96" s="152"/>
+      <c r="AH96" s="152"/>
+      <c r="AI96" s="152"/>
+      <c r="AJ96" s="152"/>
+      <c r="AK96" s="152"/>
+      <c r="AL96" s="153"/>
     </row>
     <row r="97" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="49"/>
-      <c r="AA97" s="50"/>
-      <c r="AB97" s="50"/>
-      <c r="AC97" s="50"/>
-      <c r="AD97" s="50"/>
-      <c r="AE97" s="50"/>
-      <c r="AF97" s="50"/>
-      <c r="AG97" s="50"/>
-      <c r="AH97" s="50"/>
-      <c r="AI97" s="50"/>
-      <c r="AJ97" s="50"/>
-      <c r="AK97" s="50"/>
-      <c r="AL97" s="51"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
+      <c r="M97" s="105"/>
+      <c r="N97" s="105"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="105"/>
+      <c r="Q97" s="105"/>
+      <c r="R97" s="105"/>
+      <c r="S97" s="105"/>
+      <c r="T97" s="105"/>
+      <c r="U97" s="105"/>
+      <c r="V97" s="105"/>
+      <c r="W97" s="105"/>
+      <c r="X97" s="105"/>
+      <c r="Y97" s="105"/>
+      <c r="Z97" s="154"/>
+      <c r="AA97" s="155"/>
+      <c r="AB97" s="155"/>
+      <c r="AC97" s="155"/>
+      <c r="AD97" s="155"/>
+      <c r="AE97" s="155"/>
+      <c r="AF97" s="155"/>
+      <c r="AG97" s="155"/>
+      <c r="AH97" s="155"/>
+      <c r="AI97" s="155"/>
+      <c r="AJ97" s="155"/>
+      <c r="AK97" s="155"/>
+      <c r="AL97" s="156"/>
     </row>
     <row r="98" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="37" t="s">
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+      <c r="I98" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="38" t="s">
+      <c r="J98" s="149"/>
+      <c r="K98" s="149"/>
+      <c r="L98" s="149"/>
+      <c r="M98" s="149"/>
+      <c r="N98" s="149"/>
+      <c r="O98" s="149"/>
+      <c r="P98" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38"/>
-      <c r="S98" s="33"/>
-      <c r="T98" s="33"/>
-      <c r="U98" s="33"/>
-      <c r="V98" s="33"/>
-      <c r="W98" s="33"/>
-      <c r="X98" s="38" t="s">
+      <c r="Q98" s="150"/>
+      <c r="R98" s="150"/>
+      <c r="S98" s="144"/>
+      <c r="T98" s="144"/>
+      <c r="U98" s="144"/>
+      <c r="V98" s="144"/>
+      <c r="W98" s="144"/>
+      <c r="X98" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="Y98" s="38"/>
-      <c r="Z98" s="38"/>
-      <c r="AA98" s="38"/>
-      <c r="AB98" s="38"/>
-      <c r="AC98" s="38"/>
-      <c r="AD98" s="38"/>
-      <c r="AE98" s="38"/>
-      <c r="AF98" s="38"/>
-      <c r="AG98" s="167"/>
-      <c r="AH98" s="168"/>
-      <c r="AI98" s="168"/>
-      <c r="AJ98" s="168"/>
-      <c r="AK98" s="168"/>
-      <c r="AL98" s="169"/>
+      <c r="Y98" s="150"/>
+      <c r="Z98" s="150"/>
+      <c r="AA98" s="150"/>
+      <c r="AB98" s="150"/>
+      <c r="AC98" s="150"/>
+      <c r="AD98" s="150"/>
+      <c r="AE98" s="150"/>
+      <c r="AF98" s="150"/>
+      <c r="AG98" s="157"/>
+      <c r="AH98" s="158"/>
+      <c r="AI98" s="158"/>
+      <c r="AJ98" s="158"/>
+      <c r="AK98" s="158"/>
+      <c r="AL98" s="159"/>
     </row>
     <row r="99" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="33"/>
-      <c r="R99" s="33"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="33"/>
-      <c r="U99" s="33"/>
-      <c r="V99" s="33"/>
-      <c r="W99" s="33"/>
-      <c r="X99" s="33"/>
-      <c r="Y99" s="33"/>
-      <c r="Z99" s="46" t="s">
+      <c r="B99" s="121"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="144"/>
+      <c r="K99" s="144"/>
+      <c r="L99" s="144"/>
+      <c r="M99" s="144"/>
+      <c r="N99" s="144"/>
+      <c r="O99" s="144"/>
+      <c r="P99" s="144"/>
+      <c r="Q99" s="144"/>
+      <c r="R99" s="144"/>
+      <c r="S99" s="144"/>
+      <c r="T99" s="144"/>
+      <c r="U99" s="144"/>
+      <c r="V99" s="144"/>
+      <c r="W99" s="144"/>
+      <c r="X99" s="144"/>
+      <c r="Y99" s="144"/>
+      <c r="Z99" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AA99" s="47"/>
-      <c r="AB99" s="47"/>
-      <c r="AC99" s="47"/>
-      <c r="AD99" s="47"/>
-      <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="47"/>
-      <c r="AI99" s="47"/>
-      <c r="AJ99" s="47"/>
-      <c r="AK99" s="47"/>
-      <c r="AL99" s="48"/>
+      <c r="AA99" s="152"/>
+      <c r="AB99" s="152"/>
+      <c r="AC99" s="152"/>
+      <c r="AD99" s="152"/>
+      <c r="AE99" s="152"/>
+      <c r="AF99" s="152"/>
+      <c r="AG99" s="152"/>
+      <c r="AH99" s="152"/>
+      <c r="AI99" s="152"/>
+      <c r="AJ99" s="152"/>
+      <c r="AK99" s="152"/>
+      <c r="AL99" s="153"/>
     </row>
     <row r="100" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="35"/>
-      <c r="V100" s="35"/>
-      <c r="W100" s="35"/>
-      <c r="X100" s="35"/>
-      <c r="Y100" s="35"/>
-      <c r="Z100" s="49"/>
-      <c r="AA100" s="50"/>
-      <c r="AB100" s="50"/>
-      <c r="AC100" s="50"/>
-      <c r="AD100" s="50"/>
-      <c r="AE100" s="50"/>
-      <c r="AF100" s="50"/>
-      <c r="AG100" s="50"/>
-      <c r="AH100" s="50"/>
-      <c r="AI100" s="50"/>
-      <c r="AJ100" s="50"/>
-      <c r="AK100" s="50"/>
-      <c r="AL100" s="51"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="105"/>
+      <c r="L100" s="105"/>
+      <c r="M100" s="105"/>
+      <c r="N100" s="105"/>
+      <c r="O100" s="105"/>
+      <c r="P100" s="105"/>
+      <c r="Q100" s="105"/>
+      <c r="R100" s="105"/>
+      <c r="S100" s="105"/>
+      <c r="T100" s="105"/>
+      <c r="U100" s="105"/>
+      <c r="V100" s="105"/>
+      <c r="W100" s="105"/>
+      <c r="X100" s="105"/>
+      <c r="Y100" s="105"/>
+      <c r="Z100" s="154"/>
+      <c r="AA100" s="155"/>
+      <c r="AB100" s="155"/>
+      <c r="AC100" s="155"/>
+      <c r="AD100" s="155"/>
+      <c r="AE100" s="155"/>
+      <c r="AF100" s="155"/>
+      <c r="AG100" s="155"/>
+      <c r="AH100" s="155"/>
+      <c r="AI100" s="155"/>
+      <c r="AJ100" s="155"/>
+      <c r="AK100" s="155"/>
+      <c r="AL100" s="156"/>
     </row>
     <row r="101" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="37" t="s">
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="148"/>
+      <c r="H101" s="148"/>
+      <c r="I101" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="38" t="s">
+      <c r="J101" s="149"/>
+      <c r="K101" s="149"/>
+      <c r="L101" s="149"/>
+      <c r="M101" s="149"/>
+      <c r="N101" s="149"/>
+      <c r="O101" s="149"/>
+      <c r="P101" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="38"/>
-      <c r="S101" s="33"/>
-      <c r="T101" s="33"/>
-      <c r="U101" s="33"/>
-      <c r="V101" s="33"/>
-      <c r="W101" s="33"/>
-      <c r="X101" s="38" t="s">
+      <c r="Q101" s="150"/>
+      <c r="R101" s="150"/>
+      <c r="S101" s="144"/>
+      <c r="T101" s="144"/>
+      <c r="U101" s="144"/>
+      <c r="V101" s="144"/>
+      <c r="W101" s="144"/>
+      <c r="X101" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="Y101" s="38"/>
-      <c r="Z101" s="38"/>
-      <c r="AA101" s="38"/>
-      <c r="AB101" s="38"/>
-      <c r="AC101" s="38"/>
-      <c r="AD101" s="38"/>
-      <c r="AE101" s="38"/>
-      <c r="AF101" s="38"/>
-      <c r="AG101" s="167" t="s">
+      <c r="Y101" s="150"/>
+      <c r="Z101" s="150"/>
+      <c r="AA101" s="150"/>
+      <c r="AB101" s="150"/>
+      <c r="AC101" s="150"/>
+      <c r="AD101" s="150"/>
+      <c r="AE101" s="150"/>
+      <c r="AF101" s="150"/>
+      <c r="AG101" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AH101" s="168"/>
-      <c r="AI101" s="168"/>
-      <c r="AJ101" s="168"/>
-      <c r="AK101" s="168"/>
-      <c r="AL101" s="169"/>
+      <c r="AH101" s="158"/>
+      <c r="AI101" s="158"/>
+      <c r="AJ101" s="158"/>
+      <c r="AK101" s="158"/>
+      <c r="AL101" s="159"/>
     </row>
     <row r="102" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="28"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
-      <c r="AE102" s="28"/>
-      <c r="AF102" s="28"/>
-      <c r="AG102" s="28"/>
-      <c r="AH102" s="28"/>
-      <c r="AI102" s="28"/>
-      <c r="AJ102" s="28"/>
-      <c r="AK102" s="28"/>
-      <c r="AL102" s="29"/>
+      <c r="A102" s="168"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="69"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="69"/>
+      <c r="AB102" s="69"/>
+      <c r="AC102" s="69"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="69"/>
+      <c r="AF102" s="69"/>
+      <c r="AG102" s="69"/>
+      <c r="AH102" s="69"/>
+      <c r="AI102" s="69"/>
+      <c r="AJ102" s="69"/>
+      <c r="AK102" s="69"/>
+      <c r="AL102" s="169"/>
     </row>
     <row r="103" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="30"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="30"/>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="30"/>
-      <c r="AE103" s="30"/>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="30"/>
-      <c r="AH103" s="30"/>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="30"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="30"/>
+      <c r="B103" s="142"/>
+      <c r="C103" s="142"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="142"/>
+      <c r="J103" s="142"/>
+      <c r="K103" s="142"/>
+      <c r="L103" s="142"/>
+      <c r="M103" s="142"/>
+      <c r="N103" s="142"/>
+      <c r="O103" s="142"/>
+      <c r="P103" s="142"/>
+      <c r="Q103" s="142"/>
+      <c r="R103" s="142"/>
+      <c r="S103" s="142"/>
+      <c r="T103" s="142"/>
+      <c r="U103" s="142"/>
+      <c r="V103" s="142"/>
+      <c r="W103" s="142"/>
+      <c r="X103" s="142"/>
+      <c r="Y103" s="142"/>
+      <c r="Z103" s="142"/>
+      <c r="AA103" s="142"/>
+      <c r="AB103" s="142"/>
+      <c r="AC103" s="142"/>
+      <c r="AD103" s="142"/>
+      <c r="AE103" s="142"/>
+      <c r="AF103" s="142"/>
+      <c r="AG103" s="142"/>
+      <c r="AH103" s="142"/>
+      <c r="AI103" s="142"/>
+      <c r="AJ103" s="142"/>
+      <c r="AK103" s="142"/>
+      <c r="AL103" s="142"/>
     </row>
     <row r="104" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-      <c r="V104" s="31"/>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
-      <c r="Y104" s="31"/>
-      <c r="Z104" s="31"/>
-      <c r="AA104" s="31"/>
-      <c r="AB104" s="31"/>
-      <c r="AC104" s="31"/>
-      <c r="AD104" s="31"/>
-      <c r="AE104" s="31"/>
-      <c r="AF104" s="31"/>
-      <c r="AG104" s="31"/>
-      <c r="AH104" s="31"/>
-      <c r="AI104" s="31"/>
-      <c r="AJ104" s="31"/>
-      <c r="AK104" s="31"/>
-      <c r="AL104" s="31"/>
+      <c r="A104" s="111"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="111"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="111"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="111"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="111"/>
+      <c r="M104" s="111"/>
+      <c r="N104" s="111"/>
+      <c r="O104" s="111"/>
+      <c r="P104" s="111"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="111"/>
+      <c r="S104" s="111"/>
+      <c r="T104" s="111"/>
+      <c r="U104" s="111"/>
+      <c r="V104" s="111"/>
+      <c r="W104" s="111"/>
+      <c r="X104" s="111"/>
+      <c r="Y104" s="111"/>
+      <c r="Z104" s="111"/>
+      <c r="AA104" s="111"/>
+      <c r="AB104" s="111"/>
+      <c r="AC104" s="111"/>
+      <c r="AD104" s="111"/>
+      <c r="AE104" s="111"/>
+      <c r="AF104" s="111"/>
+      <c r="AG104" s="111"/>
+      <c r="AH104" s="111"/>
+      <c r="AI104" s="111"/>
+      <c r="AJ104" s="111"/>
+      <c r="AK104" s="111"/>
+      <c r="AL104" s="111"/>
     </row>
     <row r="105" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
-      <c r="Q105" s="33"/>
-      <c r="R105" s="33"/>
-      <c r="S105" s="33"/>
-      <c r="T105" s="33"/>
-      <c r="U105" s="33"/>
-      <c r="V105" s="33"/>
-      <c r="W105" s="33"/>
-      <c r="X105" s="33"/>
-      <c r="Y105" s="33"/>
-      <c r="Z105" s="46" t="s">
+      <c r="B105" s="160"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="160"/>
+      <c r="G105" s="160"/>
+      <c r="H105" s="160"/>
+      <c r="I105" s="144"/>
+      <c r="J105" s="144"/>
+      <c r="K105" s="144"/>
+      <c r="L105" s="144"/>
+      <c r="M105" s="144"/>
+      <c r="N105" s="144"/>
+      <c r="O105" s="144"/>
+      <c r="P105" s="144"/>
+      <c r="Q105" s="144"/>
+      <c r="R105" s="144"/>
+      <c r="S105" s="144"/>
+      <c r="T105" s="144"/>
+      <c r="U105" s="144"/>
+      <c r="V105" s="144"/>
+      <c r="W105" s="144"/>
+      <c r="X105" s="144"/>
+      <c r="Y105" s="144"/>
+      <c r="Z105" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AA105" s="47"/>
-      <c r="AB105" s="47"/>
-      <c r="AC105" s="47"/>
-      <c r="AD105" s="47"/>
-      <c r="AE105" s="47"/>
-      <c r="AF105" s="47"/>
-      <c r="AG105" s="47"/>
-      <c r="AH105" s="47"/>
-      <c r="AI105" s="47"/>
-      <c r="AJ105" s="47"/>
-      <c r="AK105" s="47"/>
-      <c r="AL105" s="48"/>
+      <c r="AA105" s="152"/>
+      <c r="AB105" s="152"/>
+      <c r="AC105" s="152"/>
+      <c r="AD105" s="152"/>
+      <c r="AE105" s="152"/>
+      <c r="AF105" s="152"/>
+      <c r="AG105" s="152"/>
+      <c r="AH105" s="152"/>
+      <c r="AI105" s="152"/>
+      <c r="AJ105" s="152"/>
+      <c r="AK105" s="152"/>
+      <c r="AL105" s="153"/>
     </row>
     <row r="106" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="39"/>
-      <c r="T106" s="39"/>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="39"/>
-      <c r="X106" s="39"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="49"/>
-      <c r="AA106" s="50"/>
-      <c r="AB106" s="50"/>
-      <c r="AC106" s="50"/>
-      <c r="AD106" s="50"/>
-      <c r="AE106" s="50"/>
-      <c r="AF106" s="50"/>
-      <c r="AG106" s="50"/>
-      <c r="AH106" s="50"/>
-      <c r="AI106" s="50"/>
-      <c r="AJ106" s="50"/>
-      <c r="AK106" s="50"/>
-      <c r="AL106" s="51"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="161"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
+      <c r="F106" s="161"/>
+      <c r="G106" s="161"/>
+      <c r="H106" s="161"/>
+      <c r="I106" s="161"/>
+      <c r="J106" s="161"/>
+      <c r="K106" s="161"/>
+      <c r="L106" s="161"/>
+      <c r="M106" s="161"/>
+      <c r="N106" s="161"/>
+      <c r="O106" s="161"/>
+      <c r="P106" s="161"/>
+      <c r="Q106" s="161"/>
+      <c r="R106" s="161"/>
+      <c r="S106" s="161"/>
+      <c r="T106" s="161"/>
+      <c r="U106" s="161"/>
+      <c r="V106" s="161"/>
+      <c r="W106" s="161"/>
+      <c r="X106" s="161"/>
+      <c r="Y106" s="161"/>
+      <c r="Z106" s="154"/>
+      <c r="AA106" s="155"/>
+      <c r="AB106" s="155"/>
+      <c r="AC106" s="155"/>
+      <c r="AD106" s="155"/>
+      <c r="AE106" s="155"/>
+      <c r="AF106" s="155"/>
+      <c r="AG106" s="155"/>
+      <c r="AH106" s="155"/>
+      <c r="AI106" s="155"/>
+      <c r="AJ106" s="155"/>
+      <c r="AK106" s="155"/>
+      <c r="AL106" s="156"/>
     </row>
     <row r="107" spans="1:38" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="43" t="s">
+      <c r="B107" s="150"/>
+      <c r="C107" s="150"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="150"/>
+      <c r="G107" s="150"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="38" t="s">
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="165"/>
+      <c r="O107" s="165"/>
+      <c r="P107" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Q107" s="38"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="33"/>
-      <c r="T107" s="33"/>
-      <c r="U107" s="33"/>
-      <c r="V107" s="33"/>
-      <c r="W107" s="33"/>
-      <c r="X107" s="38" t="s">
+      <c r="Q107" s="150"/>
+      <c r="R107" s="150"/>
+      <c r="S107" s="144"/>
+      <c r="T107" s="144"/>
+      <c r="U107" s="144"/>
+      <c r="V107" s="144"/>
+      <c r="W107" s="144"/>
+      <c r="X107" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="44"/>
-      <c r="AA107" s="44"/>
-      <c r="AB107" s="44"/>
-      <c r="AC107" s="44"/>
-      <c r="AD107" s="44"/>
-      <c r="AE107" s="44"/>
-      <c r="AF107" s="45"/>
-      <c r="AG107" s="168"/>
-      <c r="AH107" s="168"/>
-      <c r="AI107" s="168"/>
-      <c r="AJ107" s="168"/>
-      <c r="AK107" s="168"/>
-      <c r="AL107" s="169"/>
+      <c r="Y107" s="150"/>
+      <c r="Z107" s="166"/>
+      <c r="AA107" s="166"/>
+      <c r="AB107" s="166"/>
+      <c r="AC107" s="166"/>
+      <c r="AD107" s="166"/>
+      <c r="AE107" s="166"/>
+      <c r="AF107" s="167"/>
+      <c r="AG107" s="158"/>
+      <c r="AH107" s="158"/>
+      <c r="AI107" s="158"/>
+      <c r="AJ107" s="158"/>
+      <c r="AK107" s="158"/>
+      <c r="AL107" s="159"/>
     </row>
     <row r="108" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="33"/>
-      <c r="R108" s="33"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="33"/>
-      <c r="U108" s="33"/>
-      <c r="V108" s="33"/>
-      <c r="W108" s="33"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="46" t="s">
+      <c r="B108" s="160"/>
+      <c r="C108" s="160"/>
+      <c r="D108" s="160"/>
+      <c r="E108" s="160"/>
+      <c r="F108" s="160"/>
+      <c r="G108" s="160"/>
+      <c r="H108" s="160"/>
+      <c r="I108" s="144"/>
+      <c r="J108" s="144"/>
+      <c r="K108" s="144"/>
+      <c r="L108" s="144"/>
+      <c r="M108" s="144"/>
+      <c r="N108" s="144"/>
+      <c r="O108" s="144"/>
+      <c r="P108" s="144"/>
+      <c r="Q108" s="144"/>
+      <c r="R108" s="144"/>
+      <c r="S108" s="144"/>
+      <c r="T108" s="144"/>
+      <c r="U108" s="144"/>
+      <c r="V108" s="144"/>
+      <c r="W108" s="144"/>
+      <c r="X108" s="144"/>
+      <c r="Y108" s="144"/>
+      <c r="Z108" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AA108" s="47"/>
-      <c r="AB108" s="47"/>
-      <c r="AC108" s="47"/>
-      <c r="AD108" s="47"/>
-      <c r="AE108" s="47"/>
-      <c r="AF108" s="47"/>
-      <c r="AG108" s="47"/>
-      <c r="AH108" s="47"/>
-      <c r="AI108" s="47"/>
-      <c r="AJ108" s="47"/>
-      <c r="AK108" s="47"/>
-      <c r="AL108" s="48"/>
+      <c r="AA108" s="152"/>
+      <c r="AB108" s="152"/>
+      <c r="AC108" s="152"/>
+      <c r="AD108" s="152"/>
+      <c r="AE108" s="152"/>
+      <c r="AF108" s="152"/>
+      <c r="AG108" s="152"/>
+      <c r="AH108" s="152"/>
+      <c r="AI108" s="152"/>
+      <c r="AJ108" s="152"/>
+      <c r="AK108" s="152"/>
+      <c r="AL108" s="153"/>
     </row>
     <row r="109" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="39"/>
-      <c r="S109" s="39"/>
-      <c r="T109" s="39"/>
-      <c r="U109" s="39"/>
-      <c r="V109" s="39"/>
-      <c r="W109" s="39"/>
-      <c r="X109" s="39"/>
-      <c r="Y109" s="39"/>
-      <c r="Z109" s="49"/>
-      <c r="AA109" s="50"/>
-      <c r="AB109" s="50"/>
-      <c r="AC109" s="50"/>
-      <c r="AD109" s="50"/>
-      <c r="AE109" s="50"/>
-      <c r="AF109" s="50"/>
-      <c r="AG109" s="50"/>
-      <c r="AH109" s="50"/>
-      <c r="AI109" s="50"/>
-      <c r="AJ109" s="50"/>
-      <c r="AK109" s="50"/>
-      <c r="AL109" s="51"/>
+      <c r="B109" s="161"/>
+      <c r="C109" s="161"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="161"/>
+      <c r="F109" s="161"/>
+      <c r="G109" s="161"/>
+      <c r="H109" s="161"/>
+      <c r="I109" s="161"/>
+      <c r="J109" s="161"/>
+      <c r="K109" s="161"/>
+      <c r="L109" s="161"/>
+      <c r="M109" s="161"/>
+      <c r="N109" s="161"/>
+      <c r="O109" s="161"/>
+      <c r="P109" s="161"/>
+      <c r="Q109" s="161"/>
+      <c r="R109" s="161"/>
+      <c r="S109" s="161"/>
+      <c r="T109" s="161"/>
+      <c r="U109" s="161"/>
+      <c r="V109" s="161"/>
+      <c r="W109" s="161"/>
+      <c r="X109" s="161"/>
+      <c r="Y109" s="161"/>
+      <c r="Z109" s="154"/>
+      <c r="AA109" s="155"/>
+      <c r="AB109" s="155"/>
+      <c r="AC109" s="155"/>
+      <c r="AD109" s="155"/>
+      <c r="AE109" s="155"/>
+      <c r="AF109" s="155"/>
+      <c r="AG109" s="155"/>
+      <c r="AH109" s="155"/>
+      <c r="AI109" s="155"/>
+      <c r="AJ109" s="155"/>
+      <c r="AK109" s="155"/>
+      <c r="AL109" s="156"/>
     </row>
     <row r="110" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="40" t="s">
+      <c r="B110" s="150"/>
+      <c r="C110" s="150"/>
+      <c r="D110" s="150"/>
+      <c r="E110" s="150"/>
+      <c r="F110" s="150"/>
+      <c r="G110" s="150"/>
+      <c r="H110" s="150"/>
+      <c r="I110" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="40"/>
-      <c r="N110" s="40"/>
-      <c r="O110" s="40"/>
-      <c r="P110" s="38" t="s">
+      <c r="J110" s="162"/>
+      <c r="K110" s="162"/>
+      <c r="L110" s="162"/>
+      <c r="M110" s="162"/>
+      <c r="N110" s="162"/>
+      <c r="O110" s="162"/>
+      <c r="P110" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="38"/>
-      <c r="S110" s="33"/>
-      <c r="T110" s="33"/>
-      <c r="U110" s="33"/>
-      <c r="V110" s="33"/>
-      <c r="W110" s="33"/>
-      <c r="X110" s="38" t="s">
+      <c r="Q110" s="150"/>
+      <c r="R110" s="150"/>
+      <c r="S110" s="144"/>
+      <c r="T110" s="144"/>
+      <c r="U110" s="144"/>
+      <c r="V110" s="144"/>
+      <c r="W110" s="144"/>
+      <c r="X110" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="Y110" s="38"/>
-      <c r="Z110" s="41"/>
-      <c r="AA110" s="41"/>
-      <c r="AB110" s="41"/>
-      <c r="AC110" s="41"/>
-      <c r="AD110" s="41"/>
-      <c r="AE110" s="41"/>
-      <c r="AF110" s="42"/>
-      <c r="AG110" s="168"/>
-      <c r="AH110" s="168"/>
-      <c r="AI110" s="168"/>
-      <c r="AJ110" s="168"/>
-      <c r="AK110" s="168"/>
-      <c r="AL110" s="169"/>
+      <c r="Y110" s="150"/>
+      <c r="Z110" s="163"/>
+      <c r="AA110" s="163"/>
+      <c r="AB110" s="163"/>
+      <c r="AC110" s="163"/>
+      <c r="AD110" s="163"/>
+      <c r="AE110" s="163"/>
+      <c r="AF110" s="164"/>
+      <c r="AG110" s="158"/>
+      <c r="AH110" s="158"/>
+      <c r="AI110" s="158"/>
+      <c r="AJ110" s="158"/>
+      <c r="AK110" s="158"/>
+      <c r="AL110" s="159"/>
     </row>
     <row r="111" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9920,6 +9920,246 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ft5ihDEjtNt2M9bTZq9FXo2bT/WaEAsbmeDWb3p1OHFqx0hk5YRG/QJBKj0kkns7MEjloghNVMpSJJlFMXGHGw==" saltValue="v71lLiZvChwiBaOM+30HYw==" spinCount="100000" selectLockedCells="1"/>
   <mergeCells count="260">
+    <mergeCell ref="A102:AL102"/>
+    <mergeCell ref="A103:AL103"/>
+    <mergeCell ref="A104:AL104"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="I105:Y105"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="I99:Y99"/>
+    <mergeCell ref="A100:Y100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="I101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:W101"/>
+    <mergeCell ref="X101:AF101"/>
+    <mergeCell ref="AG101:AL101"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="I108:Y108"/>
+    <mergeCell ref="A109:Y109"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="I110:O110"/>
+    <mergeCell ref="P110:R110"/>
+    <mergeCell ref="S110:W110"/>
+    <mergeCell ref="X110:AF110"/>
+    <mergeCell ref="A106:Y106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="S107:W107"/>
+    <mergeCell ref="X107:AF107"/>
+    <mergeCell ref="Z105:AL106"/>
+    <mergeCell ref="Z108:AL109"/>
+    <mergeCell ref="AG110:AL110"/>
+    <mergeCell ref="AG107:AL107"/>
+    <mergeCell ref="A97:Y97"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="I98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:W98"/>
+    <mergeCell ref="X98:AF98"/>
+    <mergeCell ref="Z99:AL100"/>
+    <mergeCell ref="Z96:AL97"/>
+    <mergeCell ref="AG98:AL98"/>
+    <mergeCell ref="A93:AL93"/>
+    <mergeCell ref="A94:AL95"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="I96:Y96"/>
+    <mergeCell ref="A87:AL87"/>
+    <mergeCell ref="B89:R89"/>
+    <mergeCell ref="W89:AK89"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="W90:AK90"/>
+    <mergeCell ref="B91:R91"/>
+    <mergeCell ref="A77:AL77"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="Q84:V84"/>
+    <mergeCell ref="X84:AD84"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="P85:V85"/>
+    <mergeCell ref="X85:AD85"/>
+    <mergeCell ref="B70:AL70"/>
+    <mergeCell ref="B71:AL71"/>
+    <mergeCell ref="B72:AL72"/>
+    <mergeCell ref="B73:AL73"/>
+    <mergeCell ref="B74:AL74"/>
+    <mergeCell ref="A76:AL76"/>
+    <mergeCell ref="B64:AL64"/>
+    <mergeCell ref="B65:AL65"/>
+    <mergeCell ref="B66:AL66"/>
+    <mergeCell ref="B67:AL67"/>
+    <mergeCell ref="B68:AL68"/>
+    <mergeCell ref="B69:AL69"/>
+    <mergeCell ref="B57:AL57"/>
+    <mergeCell ref="A59:AL59"/>
+    <mergeCell ref="A60:AL60"/>
+    <mergeCell ref="A62:AL62"/>
+    <mergeCell ref="A63:AL63"/>
+    <mergeCell ref="AG50:AL50"/>
+    <mergeCell ref="A52:AL52"/>
+    <mergeCell ref="A53:AL53"/>
+    <mergeCell ref="B54:AL54"/>
+    <mergeCell ref="B55:AL55"/>
+    <mergeCell ref="B56:AL56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="A48:AL48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:AC49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AL49"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="Z44:AL44"/>
+    <mergeCell ref="A46:AL46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="W47:AL47"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="A41:AL41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:AG42"/>
+    <mergeCell ref="AH42:AL42"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="R43:Y43"/>
+    <mergeCell ref="Z43:AL43"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG39:AL39"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="S38:Y38"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="AG38:AL38"/>
+    <mergeCell ref="A36:AL36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AG37:AL37"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:W34"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AB34:AG34"/>
+    <mergeCell ref="AH34:AL34"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="M33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AG33"/>
+    <mergeCell ref="AH33:AL33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="AB32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AG31"/>
+    <mergeCell ref="AH31:AL31"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="AH30:AL30"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="M29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AG29"/>
+    <mergeCell ref="AH29:AL29"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M27:W27"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AL28"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AL27"/>
+    <mergeCell ref="M28:W28"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AL26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="V22:AL22"/>
+    <mergeCell ref="A24:AL24"/>
+    <mergeCell ref="A25:AL25"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="A18:AL18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH16:AL16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="AH15:AL15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="A13:AL13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AD11:AL11"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="H1:AF3"/>
     <mergeCell ref="AG1:AL1"/>
@@ -9940,246 +10180,6 @@
     <mergeCell ref="R6:X6"/>
     <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="AE6:AL6"/>
-    <mergeCell ref="A13:AL13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AD11:AL11"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH16:AL16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="AH15:AL15"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="A18:AL18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AL26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="V22:AL22"/>
-    <mergeCell ref="A24:AL24"/>
-    <mergeCell ref="A25:AL25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M27:W27"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AL28"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AL27"/>
-    <mergeCell ref="M28:W28"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="AH30:AL30"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="M29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AG29"/>
-    <mergeCell ref="AH29:AL29"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="AB32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AG31"/>
-    <mergeCell ref="AH31:AL31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:W34"/>
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="AB34:AG34"/>
-    <mergeCell ref="AH34:AL34"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="M33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AG33"/>
-    <mergeCell ref="AH33:AL33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:Y38"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="AG38:AL38"/>
-    <mergeCell ref="A36:AL36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:Y37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AG37:AL37"/>
-    <mergeCell ref="A41:AL41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:AG42"/>
-    <mergeCell ref="AH42:AL42"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="R43:Y43"/>
-    <mergeCell ref="Z43:AL43"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG39:AL39"/>
-    <mergeCell ref="A48:AL48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:AC49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AL49"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="Z44:AL44"/>
-    <mergeCell ref="A46:AL46"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="W47:AL47"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="AG50:AL50"/>
-    <mergeCell ref="A52:AL52"/>
-    <mergeCell ref="A53:AL53"/>
-    <mergeCell ref="B54:AL54"/>
-    <mergeCell ref="B55:AL55"/>
-    <mergeCell ref="B56:AL56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="B64:AL64"/>
-    <mergeCell ref="B65:AL65"/>
-    <mergeCell ref="B66:AL66"/>
-    <mergeCell ref="B67:AL67"/>
-    <mergeCell ref="B68:AL68"/>
-    <mergeCell ref="B69:AL69"/>
-    <mergeCell ref="B57:AL57"/>
-    <mergeCell ref="A59:AL59"/>
-    <mergeCell ref="A60:AL60"/>
-    <mergeCell ref="A62:AL62"/>
-    <mergeCell ref="A63:AL63"/>
-    <mergeCell ref="A77:AL77"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="Q84:V84"/>
-    <mergeCell ref="X84:AD84"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="P85:V85"/>
-    <mergeCell ref="X85:AD85"/>
-    <mergeCell ref="B70:AL70"/>
-    <mergeCell ref="B71:AL71"/>
-    <mergeCell ref="B72:AL72"/>
-    <mergeCell ref="B73:AL73"/>
-    <mergeCell ref="B74:AL74"/>
-    <mergeCell ref="A76:AL76"/>
-    <mergeCell ref="A93:AL93"/>
-    <mergeCell ref="A94:AL95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="I96:Y96"/>
-    <mergeCell ref="A87:AL87"/>
-    <mergeCell ref="B89:R89"/>
-    <mergeCell ref="W89:AK89"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="W90:AK90"/>
-    <mergeCell ref="B91:R91"/>
-    <mergeCell ref="A97:Y97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="I98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:W98"/>
-    <mergeCell ref="X98:AF98"/>
-    <mergeCell ref="Z99:AL100"/>
-    <mergeCell ref="Z96:AL97"/>
-    <mergeCell ref="AG98:AL98"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="I108:Y108"/>
-    <mergeCell ref="A109:Y109"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="I110:O110"/>
-    <mergeCell ref="P110:R110"/>
-    <mergeCell ref="S110:W110"/>
-    <mergeCell ref="X110:AF110"/>
-    <mergeCell ref="A106:Y106"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="P107:R107"/>
-    <mergeCell ref="S107:W107"/>
-    <mergeCell ref="X107:AF107"/>
-    <mergeCell ref="Z105:AL106"/>
-    <mergeCell ref="Z108:AL109"/>
-    <mergeCell ref="AG110:AL110"/>
-    <mergeCell ref="AG107:AL107"/>
-    <mergeCell ref="A102:AL102"/>
-    <mergeCell ref="A103:AL103"/>
-    <mergeCell ref="A104:AL104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="I105:Y105"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="I99:Y99"/>
-    <mergeCell ref="A100:Y100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="I101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:W101"/>
-    <mergeCell ref="X101:AF101"/>
-    <mergeCell ref="AG101:AL101"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/static/forms/FT-GFI-001.xlsx
+++ b/static/forms/FT-GFI-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevinAlexisAlvearLop\Desktop\Workspace\dashboard-ft\static\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB96768-2776-4D4A-AFD2-F7716A327DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBBA07-896A-460D-9D5F-8E1DD4596D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,55 +884,224 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -940,6 +1109,160 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -954,6 +1277,42 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,15 +1346,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1004,356 +1354,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="122" zoomScaleNormal="122" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.25"/>
@@ -5327,174 +5327,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="27" t="s">
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
     </row>
     <row r="2" spans="1:38" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="27" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
     </row>
     <row r="3" spans="1:38" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="31" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="153"/>
+      <c r="AJ3" s="153"/>
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
     </row>
     <row r="4" spans="1:38" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
+      <c r="AL4" s="154"/>
     </row>
     <row r="5" spans="1:38" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
@@ -5532,188 +5532,188 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="49" t="s">
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="61" t="s">
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="63"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="168"/>
+      <c r="AI6" s="168"/>
+      <c r="AJ6" s="168"/>
+      <c r="AK6" s="168"/>
+      <c r="AL6" s="169"/>
     </row>
     <row r="7" spans="1:38" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="35"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="156"/>
+      <c r="AF7" s="156"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="157"/>
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="38"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="73"/>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="43" t="s">
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="48"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="146"/>
     </row>
     <row r="10" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="26" t="s">
         <v>46</v>
       </c>
@@ -5725,1039 +5725,1039 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="43" t="s">
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="43" t="s">
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="80"/>
-      <c r="AK10" s="80"/>
-      <c r="AL10" s="81"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="102"/>
     </row>
     <row r="11" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="72" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="75" t="s">
+      <c r="Q11" s="127"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="68"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="140"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="140"/>
+      <c r="AJ11" s="140"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="141"/>
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="38"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
     </row>
     <row r="14" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="64" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="43" t="s">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="48"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="144"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="145"/>
+      <c r="AL14" s="146"/>
     </row>
     <row r="15" spans="1:38" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="79" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
       <c r="K15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="43" t="s">
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="88" t="s">
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="68"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="140"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="141"/>
     </row>
     <row r="16" spans="1:38" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="43" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="72" t="s">
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="92"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="80"/>
     </row>
     <row r="17" spans="1:39" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="38"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73"/>
     </row>
     <row r="19" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="97" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="115"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="79" t="s">
+      <c r="AC19" s="122"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="81"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="101"/>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="101"/>
+      <c r="AL19" s="102"/>
     </row>
     <row r="20" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="101" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="72" t="s">
+      <c r="Q20" s="117"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="96"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="121"/>
     </row>
     <row r="21" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="98" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="72" t="s">
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="115"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="96"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="121"/>
     </row>
     <row r="22" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="101" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="78"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="115"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="115"/>
+      <c r="AD22" s="115"/>
+      <c r="AE22" s="115"/>
+      <c r="AF22" s="115"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="115"/>
+      <c r="AI22" s="115"/>
+      <c r="AJ22" s="115"/>
+      <c r="AK22" s="115"/>
+      <c r="AL22" s="118"/>
     </row>
     <row r="23" spans="1:39" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:39" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="38"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="73"/>
     </row>
     <row r="25" spans="1:39" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="107"/>
-      <c r="AK25" s="107"/>
-      <c r="AL25" s="108"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="90"/>
       <c r="AM25" s="6"/>
     </row>
     <row r="26" spans="1:39" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="104" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104" t="s">
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="104" t="s">
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AI26" s="105"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
       <c r="AM26" s="6"/>
     </row>
     <row r="27" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="112" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="113" t="s">
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="AI27" s="114"/>
-      <c r="AJ27" s="114"/>
-      <c r="AK27" s="114"/>
-      <c r="AL27" s="115"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="93"/>
     </row>
     <row r="28" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="112" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="113" t="s">
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="114"/>
-      <c r="AL28" s="115"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="93"/>
     </row>
     <row r="29" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="112" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="113" t="s">
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="114"/>
-      <c r="AL29" s="115"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="93"/>
     </row>
     <row r="30" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="112" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="113" t="s">
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114"/>
-      <c r="AL30" s="115"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
+      <c r="AL30" s="93"/>
     </row>
     <row r="31" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="112" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="113" t="s">
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="115"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="93"/>
     </row>
     <row r="32" spans="1:39" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="112" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="113" t="s">
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="114"/>
-      <c r="AK32" s="114"/>
-      <c r="AL32" s="115"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="93"/>
     </row>
     <row r="33" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="112" t="s">
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="113" t="s">
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AI33" s="114"/>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="115"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="93"/>
     </row>
     <row r="34" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="112" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="113" t="s">
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="115"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="92"/>
+      <c r="AL34" s="93"/>
     </row>
     <row r="35" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -6800,184 +6800,184 @@
       <c r="AL35" s="9"/>
     </row>
     <row r="36" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="119"/>
-      <c r="T36" s="119"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="119"/>
-      <c r="W36" s="119"/>
-      <c r="X36" s="119"/>
-      <c r="Y36" s="119"/>
-      <c r="Z36" s="119"/>
-      <c r="AA36" s="119"/>
-      <c r="AB36" s="119"/>
-      <c r="AC36" s="119"/>
-      <c r="AD36" s="119"/>
-      <c r="AE36" s="119"/>
-      <c r="AF36" s="119"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="38"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="73"/>
     </row>
     <row r="37" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116" t="s">
+      <c r="A37" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="104" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="116" t="s">
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="118"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AK37" s="118"/>
-      <c r="AL37" s="118"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="109"/>
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="109"/>
     </row>
     <row r="38" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="104" t="s">
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="116" t="s">
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AA38" s="116"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109"/>
+      <c r="AI38" s="109"/>
+      <c r="AJ38" s="109"/>
+      <c r="AK38" s="109"/>
+      <c r="AL38" s="109"/>
     </row>
     <row r="39" spans="1:38" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="104" t="s">
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="117"/>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="117"/>
-      <c r="Z39" s="116" t="s">
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AA39" s="116"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="118"/>
-      <c r="AH39" s="118"/>
-      <c r="AI39" s="118"/>
-      <c r="AJ39" s="118"/>
-      <c r="AK39" s="118"/>
-      <c r="AL39" s="118"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="109"/>
     </row>
     <row r="40" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -7020,186 +7020,186 @@
       <c r="AL40" s="9"/>
     </row>
     <row r="41" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="38"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="72"/>
+      <c r="AH41" s="72"/>
+      <c r="AI41" s="72"/>
+      <c r="AJ41" s="72"/>
+      <c r="AK41" s="72"/>
+      <c r="AL41" s="73"/>
     </row>
     <row r="42" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="79" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="58" t="s">
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="79" t="s">
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="AI42" s="80"/>
-      <c r="AJ42" s="80"/>
-      <c r="AK42" s="80"/>
-      <c r="AL42" s="81"/>
+      <c r="AI42" s="101"/>
+      <c r="AJ42" s="101"/>
+      <c r="AK42" s="101"/>
+      <c r="AL42" s="102"/>
     </row>
     <row r="43" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="27" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="42" t="s">
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="122"/>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="122"/>
-      <c r="AJ43" s="122"/>
-      <c r="AK43" s="122"/>
-      <c r="AL43" s="122"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96"/>
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
     </row>
     <row r="44" spans="1:38" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="27" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="42" t="s">
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="AA44" s="122"/>
-      <c r="AB44" s="122"/>
-      <c r="AC44" s="122"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="122"/>
-      <c r="AF44" s="122"/>
-      <c r="AG44" s="122"/>
-      <c r="AH44" s="122"/>
-      <c r="AI44" s="122"/>
-      <c r="AJ44" s="122"/>
-      <c r="AK44" s="122"/>
-      <c r="AL44" s="122"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
     </row>
     <row r="45" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB45" s="6"/>
@@ -7215,228 +7215,228 @@
       <c r="AL45" s="6"/>
     </row>
     <row r="46" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="38"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="73"/>
     </row>
     <row r="47" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="123" t="s">
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="125"/>
-      <c r="AG47" s="125"/>
-      <c r="AH47" s="125"/>
-      <c r="AI47" s="125"/>
-      <c r="AJ47" s="125"/>
-      <c r="AK47" s="125"/>
-      <c r="AL47" s="126"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="82"/>
+      <c r="AJ47" s="82"/>
+      <c r="AK47" s="82"/>
+      <c r="AL47" s="83"/>
     </row>
     <row r="48" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="114"/>
-      <c r="AB48" s="114"/>
-      <c r="AC48" s="114"/>
-      <c r="AD48" s="114"/>
-      <c r="AE48" s="114"/>
-      <c r="AF48" s="114"/>
-      <c r="AG48" s="114"/>
-      <c r="AH48" s="114"/>
-      <c r="AI48" s="114"/>
-      <c r="AJ48" s="114"/>
-      <c r="AK48" s="114"/>
-      <c r="AL48" s="115"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="92"/>
+      <c r="AE48" s="92"/>
+      <c r="AF48" s="92"/>
+      <c r="AG48" s="92"/>
+      <c r="AH48" s="92"/>
+      <c r="AI48" s="92"/>
+      <c r="AJ48" s="92"/>
+      <c r="AK48" s="92"/>
+      <c r="AL48" s="93"/>
     </row>
     <row r="49" spans="1:38" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="39" t="s">
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="39" t="s">
+      <c r="M49" s="86"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="V49" s="40"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="91"/>
-      <c r="Z49" s="91"/>
-      <c r="AA49" s="91"/>
-      <c r="AB49" s="91"/>
-      <c r="AC49" s="92"/>
-      <c r="AD49" s="39" t="s">
+      <c r="V49" s="86"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="80"/>
+      <c r="AD49" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="90"/>
-      <c r="AH49" s="91"/>
-      <c r="AI49" s="91"/>
-      <c r="AJ49" s="91"/>
-      <c r="AK49" s="91"/>
-      <c r="AL49" s="92"/>
+      <c r="AE49" s="86"/>
+      <c r="AF49" s="86"/>
+      <c r="AG49" s="78"/>
+      <c r="AH49" s="79"/>
+      <c r="AI49" s="79"/>
+      <c r="AJ49" s="79"/>
+      <c r="AK49" s="79"/>
+      <c r="AL49" s="80"/>
     </row>
     <row r="50" spans="1:38" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="39" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="39" t="s">
+      <c r="M50" s="86"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
+      <c r="U50" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="V50" s="40"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="91"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="39" t="s">
+      <c r="V50" s="86"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="79"/>
+      <c r="AB50" s="79"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="90"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="92"/>
+      <c r="AE50" s="86"/>
+      <c r="AF50" s="86"/>
+      <c r="AG50" s="78"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="79"/>
+      <c r="AJ50" s="79"/>
+      <c r="AK50" s="79"/>
+      <c r="AL50" s="80"/>
     </row>
     <row r="51" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -7473,256 +7473,256 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="52" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="37"/>
-      <c r="AL52" s="38"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="72"/>
+      <c r="AH52" s="72"/>
+      <c r="AI52" s="72"/>
+      <c r="AJ52" s="72"/>
+      <c r="AK52" s="72"/>
+      <c r="AL52" s="73"/>
     </row>
     <row r="53" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="125"/>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
-      <c r="V53" s="125"/>
-      <c r="W53" s="125"/>
-      <c r="X53" s="125"/>
-      <c r="Y53" s="125"/>
-      <c r="Z53" s="125"/>
-      <c r="AA53" s="125"/>
-      <c r="AB53" s="125"/>
-      <c r="AC53" s="125"/>
-      <c r="AD53" s="125"/>
-      <c r="AE53" s="125"/>
-      <c r="AF53" s="125"/>
-      <c r="AG53" s="125"/>
-      <c r="AH53" s="125"/>
-      <c r="AI53" s="125"/>
-      <c r="AJ53" s="125"/>
-      <c r="AK53" s="125"/>
-      <c r="AL53" s="126"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="82"/>
+      <c r="AF53" s="82"/>
+      <c r="AG53" s="82"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="83"/>
     </row>
     <row r="54" spans="1:38" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="128" t="s">
+      <c r="B54" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="128"/>
-      <c r="V54" s="128"/>
-      <c r="W54" s="128"/>
-      <c r="X54" s="128"/>
-      <c r="Y54" s="128"/>
-      <c r="Z54" s="128"/>
-      <c r="AA54" s="128"/>
-      <c r="AB54" s="128"/>
-      <c r="AC54" s="128"/>
-      <c r="AD54" s="128"/>
-      <c r="AE54" s="128"/>
-      <c r="AF54" s="128"/>
-      <c r="AG54" s="128"/>
-      <c r="AH54" s="128"/>
-      <c r="AI54" s="128"/>
-      <c r="AJ54" s="128"/>
-      <c r="AK54" s="128"/>
-      <c r="AL54" s="129"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
+      <c r="AE54" s="67"/>
+      <c r="AF54" s="67"/>
+      <c r="AG54" s="67"/>
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="67"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="68"/>
     </row>
     <row r="55" spans="1:38" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
-      <c r="B55" s="130" t="s">
+      <c r="B55" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="130"/>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130"/>
-      <c r="W55" s="130"/>
-      <c r="X55" s="130"/>
-      <c r="Y55" s="130"/>
-      <c r="Z55" s="130"/>
-      <c r="AA55" s="130"/>
-      <c r="AB55" s="130"/>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130"/>
-      <c r="AE55" s="130"/>
-      <c r="AF55" s="130"/>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="130"/>
-      <c r="AI55" s="130"/>
-      <c r="AJ55" s="130"/>
-      <c r="AK55" s="130"/>
-      <c r="AL55" s="131"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="84"/>
     </row>
     <row r="56" spans="1:38" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="128"/>
-      <c r="U56" s="128"/>
-      <c r="V56" s="128"/>
-      <c r="W56" s="128"/>
-      <c r="X56" s="128"/>
-      <c r="Y56" s="128"/>
-      <c r="Z56" s="128"/>
-      <c r="AA56" s="128"/>
-      <c r="AB56" s="128"/>
-      <c r="AC56" s="128"/>
-      <c r="AD56" s="128"/>
-      <c r="AE56" s="128"/>
-      <c r="AF56" s="128"/>
-      <c r="AG56" s="128"/>
-      <c r="AH56" s="128"/>
-      <c r="AI56" s="128"/>
-      <c r="AJ56" s="128"/>
-      <c r="AK56" s="128"/>
-      <c r="AL56" s="129"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
+      <c r="AE56" s="67"/>
+      <c r="AF56" s="67"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="68"/>
     </row>
     <row r="57" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="132"/>
-      <c r="U57" s="132"/>
-      <c r="V57" s="132"/>
-      <c r="W57" s="132"/>
-      <c r="X57" s="132"/>
-      <c r="Y57" s="132"/>
-      <c r="Z57" s="132"/>
-      <c r="AA57" s="132"/>
-      <c r="AB57" s="132"/>
-      <c r="AC57" s="132"/>
-      <c r="AD57" s="132"/>
-      <c r="AE57" s="132"/>
-      <c r="AF57" s="132"/>
-      <c r="AG57" s="132"/>
-      <c r="AH57" s="132"/>
-      <c r="AI57" s="132"/>
-      <c r="AJ57" s="132"/>
-      <c r="AK57" s="132"/>
-      <c r="AL57" s="133"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="69"/>
+      <c r="AH57" s="69"/>
+      <c r="AI57" s="69"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="69"/>
+      <c r="AL57" s="70"/>
     </row>
     <row r="58" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -7765,88 +7765,88 @@
       <c r="AL58" s="11"/>
     </row>
     <row r="59" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134" t="s">
+      <c r="A59" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="134"/>
-      <c r="W59" s="134"/>
-      <c r="X59" s="134"/>
-      <c r="Y59" s="134"/>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="134"/>
-      <c r="AB59" s="134"/>
-      <c r="AC59" s="134"/>
-      <c r="AD59" s="134"/>
-      <c r="AE59" s="134"/>
-      <c r="AF59" s="134"/>
-      <c r="AG59" s="134"/>
-      <c r="AH59" s="134"/>
-      <c r="AI59" s="134"/>
-      <c r="AJ59" s="134"/>
-      <c r="AK59" s="134"/>
-      <c r="AL59" s="134"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="74"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="74"/>
+      <c r="AL59" s="74"/>
     </row>
     <row r="60" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="135" t="s">
+      <c r="A60" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="136"/>
-      <c r="N60" s="136"/>
-      <c r="O60" s="136"/>
-      <c r="P60" s="136"/>
-      <c r="Q60" s="136"/>
-      <c r="R60" s="136"/>
-      <c r="S60" s="136"/>
-      <c r="T60" s="136"/>
-      <c r="U60" s="136"/>
-      <c r="V60" s="136"/>
-      <c r="W60" s="136"/>
-      <c r="X60" s="136"/>
-      <c r="Y60" s="136"/>
-      <c r="Z60" s="136"/>
-      <c r="AA60" s="136"/>
-      <c r="AB60" s="136"/>
-      <c r="AC60" s="136"/>
-      <c r="AD60" s="136"/>
-      <c r="AE60" s="136"/>
-      <c r="AF60" s="136"/>
-      <c r="AG60" s="136"/>
-      <c r="AH60" s="136"/>
-      <c r="AI60" s="136"/>
-      <c r="AJ60" s="136"/>
-      <c r="AK60" s="136"/>
-      <c r="AL60" s="137"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="77"/>
     </row>
     <row r="61" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
@@ -7889,550 +7889,550 @@
       <c r="AL61" s="5"/>
     </row>
     <row r="62" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
-      <c r="AJ62" s="37"/>
-      <c r="AK62" s="37"/>
-      <c r="AL62" s="38"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="72"/>
+      <c r="V62" s="72"/>
+      <c r="W62" s="72"/>
+      <c r="X62" s="72"/>
+      <c r="Y62" s="72"/>
+      <c r="Z62" s="72"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="72"/>
+      <c r="AC62" s="72"/>
+      <c r="AD62" s="72"/>
+      <c r="AE62" s="72"/>
+      <c r="AF62" s="72"/>
+      <c r="AG62" s="72"/>
+      <c r="AH62" s="72"/>
+      <c r="AI62" s="72"/>
+      <c r="AJ62" s="72"/>
+      <c r="AK62" s="72"/>
+      <c r="AL62" s="73"/>
     </row>
     <row r="63" spans="1:38" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="123" t="s">
+      <c r="A63" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="124"/>
-      <c r="S63" s="124"/>
-      <c r="T63" s="124"/>
-      <c r="U63" s="124"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="124"/>
-      <c r="Y63" s="124"/>
-      <c r="Z63" s="124"/>
-      <c r="AA63" s="124"/>
-      <c r="AB63" s="124"/>
-      <c r="AC63" s="124"/>
-      <c r="AD63" s="124"/>
-      <c r="AE63" s="124"/>
-      <c r="AF63" s="124"/>
-      <c r="AG63" s="124"/>
-      <c r="AH63" s="124"/>
-      <c r="AI63" s="124"/>
-      <c r="AJ63" s="124"/>
-      <c r="AK63" s="124"/>
-      <c r="AL63" s="138"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="62"/>
+      <c r="AC63" s="62"/>
+      <c r="AD63" s="62"/>
+      <c r="AE63" s="62"/>
+      <c r="AF63" s="62"/>
+      <c r="AG63" s="62"/>
+      <c r="AH63" s="62"/>
+      <c r="AI63" s="62"/>
+      <c r="AJ63" s="62"/>
+      <c r="AK63" s="62"/>
+      <c r="AL63" s="63"/>
     </row>
     <row r="64" spans="1:38" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="128"/>
-      <c r="S64" s="128"/>
-      <c r="T64" s="128"/>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="128"/>
-      <c r="Y64" s="128"/>
-      <c r="Z64" s="128"/>
-      <c r="AA64" s="128"/>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="128"/>
-      <c r="AD64" s="128"/>
-      <c r="AE64" s="128"/>
-      <c r="AF64" s="128"/>
-      <c r="AG64" s="128"/>
-      <c r="AH64" s="128"/>
-      <c r="AI64" s="128"/>
-      <c r="AJ64" s="128"/>
-      <c r="AK64" s="128"/>
-      <c r="AL64" s="129"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="67"/>
+      <c r="AE64" s="67"/>
+      <c r="AF64" s="67"/>
+      <c r="AG64" s="67"/>
+      <c r="AH64" s="67"/>
+      <c r="AI64" s="67"/>
+      <c r="AJ64" s="67"/>
+      <c r="AK64" s="67"/>
+      <c r="AL64" s="68"/>
     </row>
     <row r="65" spans="1:38" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="128"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="128"/>
-      <c r="L65" s="128"/>
-      <c r="M65" s="128"/>
-      <c r="N65" s="128"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="128"/>
-      <c r="R65" s="128"/>
-      <c r="S65" s="128"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="128"/>
-      <c r="Y65" s="128"/>
-      <c r="Z65" s="128"/>
-      <c r="AA65" s="128"/>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="128"/>
-      <c r="AD65" s="128"/>
-      <c r="AE65" s="128"/>
-      <c r="AF65" s="128"/>
-      <c r="AG65" s="128"/>
-      <c r="AH65" s="128"/>
-      <c r="AI65" s="128"/>
-      <c r="AJ65" s="128"/>
-      <c r="AK65" s="128"/>
-      <c r="AL65" s="129"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="67"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="67"/>
+      <c r="AD65" s="67"/>
+      <c r="AE65" s="67"/>
+      <c r="AF65" s="67"/>
+      <c r="AG65" s="67"/>
+      <c r="AH65" s="67"/>
+      <c r="AI65" s="67"/>
+      <c r="AJ65" s="67"/>
+      <c r="AK65" s="67"/>
+      <c r="AL65" s="68"/>
     </row>
     <row r="66" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
-      <c r="B66" s="128" t="s">
+      <c r="B66" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="128"/>
-      <c r="M66" s="128"/>
-      <c r="N66" s="128"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="128"/>
-      <c r="R66" s="128"/>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
-      <c r="Y66" s="128"/>
-      <c r="Z66" s="128"/>
-      <c r="AA66" s="128"/>
-      <c r="AB66" s="128"/>
-      <c r="AC66" s="128"/>
-      <c r="AD66" s="128"/>
-      <c r="AE66" s="128"/>
-      <c r="AF66" s="128"/>
-      <c r="AG66" s="128"/>
-      <c r="AH66" s="128"/>
-      <c r="AI66" s="128"/>
-      <c r="AJ66" s="128"/>
-      <c r="AK66" s="128"/>
-      <c r="AL66" s="129"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67"/>
+      <c r="X66" s="67"/>
+      <c r="Y66" s="67"/>
+      <c r="Z66" s="67"/>
+      <c r="AA66" s="67"/>
+      <c r="AB66" s="67"/>
+      <c r="AC66" s="67"/>
+      <c r="AD66" s="67"/>
+      <c r="AE66" s="67"/>
+      <c r="AF66" s="67"/>
+      <c r="AG66" s="67"/>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="67"/>
+      <c r="AJ66" s="67"/>
+      <c r="AK66" s="67"/>
+      <c r="AL66" s="68"/>
     </row>
     <row r="67" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
-      <c r="B67" s="128" t="s">
+      <c r="B67" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
-      <c r="M67" s="128"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
-      <c r="R67" s="128"/>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="128"/>
-      <c r="W67" s="128"/>
-      <c r="X67" s="128"/>
-      <c r="Y67" s="128"/>
-      <c r="Z67" s="128"/>
-      <c r="AA67" s="128"/>
-      <c r="AB67" s="128"/>
-      <c r="AC67" s="128"/>
-      <c r="AD67" s="128"/>
-      <c r="AE67" s="128"/>
-      <c r="AF67" s="128"/>
-      <c r="AG67" s="128"/>
-      <c r="AH67" s="128"/>
-      <c r="AI67" s="128"/>
-      <c r="AJ67" s="128"/>
-      <c r="AK67" s="128"/>
-      <c r="AL67" s="129"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="67"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="67"/>
+      <c r="AD67" s="67"/>
+      <c r="AE67" s="67"/>
+      <c r="AF67" s="67"/>
+      <c r="AG67" s="67"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="67"/>
+      <c r="AL67" s="68"/>
     </row>
     <row r="68" spans="1:38" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
-      <c r="B68" s="128" t="s">
+      <c r="B68" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="128"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128"/>
-      <c r="Q68" s="128"/>
-      <c r="R68" s="128"/>
-      <c r="S68" s="128"/>
-      <c r="T68" s="128"/>
-      <c r="U68" s="128"/>
-      <c r="V68" s="128"/>
-      <c r="W68" s="128"/>
-      <c r="X68" s="128"/>
-      <c r="Y68" s="128"/>
-      <c r="Z68" s="128"/>
-      <c r="AA68" s="128"/>
-      <c r="AB68" s="128"/>
-      <c r="AC68" s="128"/>
-      <c r="AD68" s="128"/>
-      <c r="AE68" s="128"/>
-      <c r="AF68" s="128"/>
-      <c r="AG68" s="128"/>
-      <c r="AH68" s="128"/>
-      <c r="AI68" s="128"/>
-      <c r="AJ68" s="128"/>
-      <c r="AK68" s="128"/>
-      <c r="AL68" s="129"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="67"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="67"/>
+      <c r="AC68" s="67"/>
+      <c r="AD68" s="67"/>
+      <c r="AE68" s="67"/>
+      <c r="AF68" s="67"/>
+      <c r="AG68" s="67"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="68"/>
     </row>
     <row r="69" spans="1:38" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="128"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="128"/>
-      <c r="I69" s="128"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="128"/>
-      <c r="M69" s="128"/>
-      <c r="N69" s="128"/>
-      <c r="O69" s="128"/>
-      <c r="P69" s="128"/>
-      <c r="Q69" s="128"/>
-      <c r="R69" s="128"/>
-      <c r="S69" s="128"/>
-      <c r="T69" s="128"/>
-      <c r="U69" s="128"/>
-      <c r="V69" s="128"/>
-      <c r="W69" s="128"/>
-      <c r="X69" s="128"/>
-      <c r="Y69" s="128"/>
-      <c r="Z69" s="128"/>
-      <c r="AA69" s="128"/>
-      <c r="AB69" s="128"/>
-      <c r="AC69" s="128"/>
-      <c r="AD69" s="128"/>
-      <c r="AE69" s="128"/>
-      <c r="AF69" s="128"/>
-      <c r="AG69" s="128"/>
-      <c r="AH69" s="128"/>
-      <c r="AI69" s="128"/>
-      <c r="AJ69" s="128"/>
-      <c r="AK69" s="128"/>
-      <c r="AL69" s="129"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="67"/>
+      <c r="Z69" s="67"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="67"/>
+      <c r="AD69" s="67"/>
+      <c r="AE69" s="67"/>
+      <c r="AF69" s="67"/>
+      <c r="AG69" s="67"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+      <c r="AJ69" s="67"/>
+      <c r="AK69" s="67"/>
+      <c r="AL69" s="68"/>
     </row>
     <row r="70" spans="1:38" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="B70" s="128" t="s">
+      <c r="B70" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="128"/>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="128"/>
-      <c r="I70" s="128"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="128"/>
-      <c r="L70" s="128"/>
-      <c r="M70" s="128"/>
-      <c r="N70" s="128"/>
-      <c r="O70" s="128"/>
-      <c r="P70" s="128"/>
-      <c r="Q70" s="128"/>
-      <c r="R70" s="128"/>
-      <c r="S70" s="128"/>
-      <c r="T70" s="128"/>
-      <c r="U70" s="128"/>
-      <c r="V70" s="128"/>
-      <c r="W70" s="128"/>
-      <c r="X70" s="128"/>
-      <c r="Y70" s="128"/>
-      <c r="Z70" s="128"/>
-      <c r="AA70" s="128"/>
-      <c r="AB70" s="128"/>
-      <c r="AC70" s="128"/>
-      <c r="AD70" s="128"/>
-      <c r="AE70" s="128"/>
-      <c r="AF70" s="128"/>
-      <c r="AG70" s="128"/>
-      <c r="AH70" s="128"/>
-      <c r="AI70" s="128"/>
-      <c r="AJ70" s="128"/>
-      <c r="AK70" s="128"/>
-      <c r="AL70" s="129"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="67"/>
+      <c r="Z70" s="67"/>
+      <c r="AA70" s="67"/>
+      <c r="AB70" s="67"/>
+      <c r="AC70" s="67"/>
+      <c r="AD70" s="67"/>
+      <c r="AE70" s="67"/>
+      <c r="AF70" s="67"/>
+      <c r="AG70" s="67"/>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AJ70" s="67"/>
+      <c r="AK70" s="67"/>
+      <c r="AL70" s="68"/>
     </row>
     <row r="71" spans="1:38" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
-      <c r="B71" s="128" t="s">
+      <c r="B71" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="128"/>
-      <c r="M71" s="128"/>
-      <c r="N71" s="128"/>
-      <c r="O71" s="128"/>
-      <c r="P71" s="128"/>
-      <c r="Q71" s="128"/>
-      <c r="R71" s="128"/>
-      <c r="S71" s="128"/>
-      <c r="T71" s="128"/>
-      <c r="U71" s="128"/>
-      <c r="V71" s="128"/>
-      <c r="W71" s="128"/>
-      <c r="X71" s="128"/>
-      <c r="Y71" s="128"/>
-      <c r="Z71" s="128"/>
-      <c r="AA71" s="128"/>
-      <c r="AB71" s="128"/>
-      <c r="AC71" s="128"/>
-      <c r="AD71" s="128"/>
-      <c r="AE71" s="128"/>
-      <c r="AF71" s="128"/>
-      <c r="AG71" s="128"/>
-      <c r="AH71" s="128"/>
-      <c r="AI71" s="128"/>
-      <c r="AJ71" s="128"/>
-      <c r="AK71" s="128"/>
-      <c r="AL71" s="129"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="67"/>
+      <c r="AA71" s="67"/>
+      <c r="AB71" s="67"/>
+      <c r="AC71" s="67"/>
+      <c r="AD71" s="67"/>
+      <c r="AE71" s="67"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+      <c r="AJ71" s="67"/>
+      <c r="AK71" s="67"/>
+      <c r="AL71" s="68"/>
     </row>
     <row r="72" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
-      <c r="B72" s="128" t="s">
+      <c r="B72" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="128"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="128"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="128"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
-      <c r="Q72" s="128"/>
-      <c r="R72" s="128"/>
-      <c r="S72" s="128"/>
-      <c r="T72" s="128"/>
-      <c r="U72" s="128"/>
-      <c r="V72" s="128"/>
-      <c r="W72" s="128"/>
-      <c r="X72" s="128"/>
-      <c r="Y72" s="128"/>
-      <c r="Z72" s="128"/>
-      <c r="AA72" s="128"/>
-      <c r="AB72" s="128"/>
-      <c r="AC72" s="128"/>
-      <c r="AD72" s="128"/>
-      <c r="AE72" s="128"/>
-      <c r="AF72" s="128"/>
-      <c r="AG72" s="128"/>
-      <c r="AH72" s="128"/>
-      <c r="AI72" s="128"/>
-      <c r="AJ72" s="128"/>
-      <c r="AK72" s="128"/>
-      <c r="AL72" s="129"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="67"/>
+      <c r="AE72" s="67"/>
+      <c r="AF72" s="67"/>
+      <c r="AG72" s="67"/>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="68"/>
     </row>
     <row r="73" spans="1:38" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
-      <c r="B73" s="128" t="s">
+      <c r="B73" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="128"/>
-      <c r="L73" s="128"/>
-      <c r="M73" s="128"/>
-      <c r="N73" s="128"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
-      <c r="R73" s="128"/>
-      <c r="S73" s="128"/>
-      <c r="T73" s="128"/>
-      <c r="U73" s="128"/>
-      <c r="V73" s="128"/>
-      <c r="W73" s="128"/>
-      <c r="X73" s="128"/>
-      <c r="Y73" s="128"/>
-      <c r="Z73" s="128"/>
-      <c r="AA73" s="128"/>
-      <c r="AB73" s="128"/>
-      <c r="AC73" s="128"/>
-      <c r="AD73" s="128"/>
-      <c r="AE73" s="128"/>
-      <c r="AF73" s="128"/>
-      <c r="AG73" s="128"/>
-      <c r="AH73" s="128"/>
-      <c r="AI73" s="128"/>
-      <c r="AJ73" s="128"/>
-      <c r="AK73" s="128"/>
-      <c r="AL73" s="129"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="67"/>
+      <c r="AE73" s="67"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="67"/>
+      <c r="AI73" s="67"/>
+      <c r="AJ73" s="67"/>
+      <c r="AK73" s="67"/>
+      <c r="AL73" s="68"/>
     </row>
     <row r="74" spans="1:38" s="4" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
-      <c r="B74" s="132" t="s">
+      <c r="B74" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="132"/>
-      <c r="D74" s="132"/>
-      <c r="E74" s="132"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="132"/>
-      <c r="J74" s="132"/>
-      <c r="K74" s="132"/>
-      <c r="L74" s="132"/>
-      <c r="M74" s="132"/>
-      <c r="N74" s="132"/>
-      <c r="O74" s="132"/>
-      <c r="P74" s="132"/>
-      <c r="Q74" s="132"/>
-      <c r="R74" s="132"/>
-      <c r="S74" s="132"/>
-      <c r="T74" s="132"/>
-      <c r="U74" s="132"/>
-      <c r="V74" s="132"/>
-      <c r="W74" s="132"/>
-      <c r="X74" s="132"/>
-      <c r="Y74" s="132"/>
-      <c r="Z74" s="132"/>
-      <c r="AA74" s="132"/>
-      <c r="AB74" s="132"/>
-      <c r="AC74" s="132"/>
-      <c r="AD74" s="132"/>
-      <c r="AE74" s="132"/>
-      <c r="AF74" s="132"/>
-      <c r="AG74" s="132"/>
-      <c r="AH74" s="132"/>
-      <c r="AI74" s="132"/>
-      <c r="AJ74" s="132"/>
-      <c r="AK74" s="132"/>
-      <c r="AL74" s="133"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
+      <c r="Y74" s="69"/>
+      <c r="Z74" s="69"/>
+      <c r="AA74" s="69"/>
+      <c r="AB74" s="69"/>
+      <c r="AC74" s="69"/>
+      <c r="AD74" s="69"/>
+      <c r="AE74" s="69"/>
+      <c r="AF74" s="69"/>
+      <c r="AG74" s="69"/>
+      <c r="AH74" s="69"/>
+      <c r="AI74" s="69"/>
+      <c r="AJ74" s="69"/>
+      <c r="AK74" s="69"/>
+      <c r="AL74" s="70"/>
     </row>
     <row r="75" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
@@ -8475,88 +8475,88 @@
       <c r="AL75" s="18"/>
     </row>
     <row r="76" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="37"/>
-      <c r="AB76" s="37"/>
-      <c r="AC76" s="37"/>
-      <c r="AD76" s="37"/>
-      <c r="AE76" s="37"/>
-      <c r="AF76" s="37"/>
-      <c r="AG76" s="37"/>
-      <c r="AH76" s="37"/>
-      <c r="AI76" s="37"/>
-      <c r="AJ76" s="37"/>
-      <c r="AK76" s="37"/>
-      <c r="AL76" s="38"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="72"/>
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="72"/>
+      <c r="AA76" s="72"/>
+      <c r="AB76" s="72"/>
+      <c r="AC76" s="72"/>
+      <c r="AD76" s="72"/>
+      <c r="AE76" s="72"/>
+      <c r="AF76" s="72"/>
+      <c r="AG76" s="72"/>
+      <c r="AH76" s="72"/>
+      <c r="AI76" s="72"/>
+      <c r="AJ76" s="72"/>
+      <c r="AK76" s="72"/>
+      <c r="AL76" s="73"/>
     </row>
     <row r="77" spans="1:38" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
-      <c r="M77" s="124"/>
-      <c r="N77" s="124"/>
-      <c r="O77" s="124"/>
-      <c r="P77" s="124"/>
-      <c r="Q77" s="124"/>
-      <c r="R77" s="124"/>
-      <c r="S77" s="124"/>
-      <c r="T77" s="124"/>
-      <c r="U77" s="124"/>
-      <c r="V77" s="124"/>
-      <c r="W77" s="124"/>
-      <c r="X77" s="124"/>
-      <c r="Y77" s="124"/>
-      <c r="Z77" s="124"/>
-      <c r="AA77" s="124"/>
-      <c r="AB77" s="124"/>
-      <c r="AC77" s="124"/>
-      <c r="AD77" s="124"/>
-      <c r="AE77" s="124"/>
-      <c r="AF77" s="124"/>
-      <c r="AG77" s="124"/>
-      <c r="AH77" s="124"/>
-      <c r="AI77" s="124"/>
-      <c r="AJ77" s="124"/>
-      <c r="AK77" s="124"/>
-      <c r="AL77" s="138"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="62"/>
+      <c r="S77" s="62"/>
+      <c r="T77" s="62"/>
+      <c r="U77" s="62"/>
+      <c r="V77" s="62"/>
+      <c r="W77" s="62"/>
+      <c r="X77" s="62"/>
+      <c r="Y77" s="62"/>
+      <c r="Z77" s="62"/>
+      <c r="AA77" s="62"/>
+      <c r="AB77" s="62"/>
+      <c r="AC77" s="62"/>
+      <c r="AD77" s="62"/>
+      <c r="AE77" s="62"/>
+      <c r="AF77" s="62"/>
+      <c r="AG77" s="62"/>
+      <c r="AH77" s="62"/>
+      <c r="AI77" s="62"/>
+      <c r="AJ77" s="62"/>
+      <c r="AK77" s="62"/>
+      <c r="AL77" s="63"/>
     </row>
     <row r="78" spans="1:38" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
@@ -8800,34 +8800,34 @@
     </row>
     <row r="84" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
-      <c r="B84" s="139"/>
-      <c r="C84" s="139"/>
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="139"/>
-      <c r="G84" s="139"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="139"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="139"/>
-      <c r="M84" s="139"/>
-      <c r="N84" s="139"/>
-      <c r="O84" s="139"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
       <c r="P84" s="14"/>
-      <c r="Q84" s="139"/>
-      <c r="R84" s="139"/>
-      <c r="S84" s="139"/>
-      <c r="T84" s="139"/>
-      <c r="U84" s="139"/>
-      <c r="V84" s="139"/>
-      <c r="X84" s="139"/>
-      <c r="Y84" s="139"/>
-      <c r="Z84" s="139"/>
-      <c r="AA84" s="139"/>
-      <c r="AB84" s="139"/>
-      <c r="AC84" s="139"/>
-      <c r="AD84" s="139"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="64"/>
+      <c r="S84" s="64"/>
+      <c r="T84" s="64"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
+      <c r="X84" s="64"/>
+      <c r="Y84" s="64"/>
+      <c r="Z84" s="64"/>
+      <c r="AA84" s="64"/>
+      <c r="AB84" s="64"/>
+      <c r="AC84" s="64"/>
+      <c r="AD84" s="64"/>
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
       <c r="AG84" s="6"/>
@@ -8839,40 +8839,40 @@
     </row>
     <row r="85" spans="1:38" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
-      <c r="B85" s="140" t="s">
+      <c r="B85" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="140"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="141" t="s">
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q85" s="141"/>
-      <c r="R85" s="141"/>
-      <c r="S85" s="141"/>
-      <c r="T85" s="141"/>
-      <c r="U85" s="141"/>
-      <c r="V85" s="141"/>
-      <c r="X85" s="141" t="s">
+      <c r="Q85" s="66"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="66"/>
+      <c r="T85" s="66"/>
+      <c r="U85" s="66"/>
+      <c r="V85" s="66"/>
+      <c r="X85" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="Y85" s="141"/>
-      <c r="Z85" s="141"/>
-      <c r="AA85" s="141"/>
-      <c r="AB85" s="141"/>
-      <c r="AC85" s="141"/>
-      <c r="AD85" s="141"/>
+      <c r="Y85" s="66"/>
+      <c r="Z85" s="66"/>
+      <c r="AA85" s="66"/>
+      <c r="AB85" s="66"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
       <c r="AG85" s="6"/>
@@ -8884,46 +8884,46 @@
     </row>
     <row r="86" spans="1:38" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:38" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="120" t="s">
+      <c r="A87" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="145"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="145"/>
-      <c r="M87" s="145"/>
-      <c r="N87" s="145"/>
-      <c r="O87" s="145"/>
-      <c r="P87" s="145"/>
-      <c r="Q87" s="145"/>
-      <c r="R87" s="145"/>
-      <c r="S87" s="145"/>
-      <c r="T87" s="145"/>
-      <c r="U87" s="145"/>
-      <c r="V87" s="145"/>
-      <c r="W87" s="145"/>
-      <c r="X87" s="145"/>
-      <c r="Y87" s="145"/>
-      <c r="Z87" s="145"/>
-      <c r="AA87" s="145"/>
-      <c r="AB87" s="145"/>
-      <c r="AC87" s="145"/>
-      <c r="AD87" s="145"/>
-      <c r="AE87" s="145"/>
-      <c r="AF87" s="145"/>
-      <c r="AG87" s="145"/>
-      <c r="AH87" s="145"/>
-      <c r="AI87" s="145"/>
-      <c r="AJ87" s="145"/>
-      <c r="AK87" s="145"/>
-      <c r="AL87" s="146"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
+      <c r="W87" s="57"/>
+      <c r="X87" s="57"/>
+      <c r="Y87" s="57"/>
+      <c r="Z87" s="57"/>
+      <c r="AA87" s="57"/>
+      <c r="AB87" s="57"/>
+      <c r="AC87" s="57"/>
+      <c r="AD87" s="57"/>
+      <c r="AE87" s="57"/>
+      <c r="AF87" s="57"/>
+      <c r="AG87" s="57"/>
+      <c r="AH87" s="57"/>
+      <c r="AI87" s="57"/>
+      <c r="AJ87" s="57"/>
+      <c r="AK87" s="57"/>
+      <c r="AL87" s="58"/>
     </row>
     <row r="88" spans="1:38" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -8931,105 +8931,105 @@
     </row>
     <row r="89" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
-      <c r="B89" s="130" t="s">
+      <c r="B89" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="130"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="130"/>
-      <c r="F89" s="130"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="130"/>
-      <c r="L89" s="130"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="130"/>
-      <c r="O89" s="130"/>
-      <c r="P89" s="130"/>
-      <c r="Q89" s="130"/>
-      <c r="R89" s="130"/>
-      <c r="W89" s="130" t="s">
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
+      <c r="W89" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="X89" s="130"/>
-      <c r="Y89" s="130"/>
-      <c r="Z89" s="130"/>
-      <c r="AA89" s="130"/>
-      <c r="AB89" s="130"/>
-      <c r="AC89" s="130"/>
-      <c r="AD89" s="130"/>
-      <c r="AE89" s="130"/>
-      <c r="AF89" s="130"/>
-      <c r="AG89" s="130"/>
-      <c r="AH89" s="130"/>
-      <c r="AI89" s="130"/>
-      <c r="AJ89" s="130"/>
-      <c r="AK89" s="130"/>
+      <c r="X89" s="59"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="59"/>
+      <c r="AA89" s="59"/>
+      <c r="AB89" s="59"/>
+      <c r="AC89" s="59"/>
+      <c r="AD89" s="59"/>
+      <c r="AE89" s="59"/>
+      <c r="AF89" s="59"/>
+      <c r="AG89" s="59"/>
+      <c r="AH89" s="59"/>
+      <c r="AI89" s="59"/>
+      <c r="AJ89" s="59"/>
+      <c r="AK89" s="59"/>
       <c r="AL89" s="21"/>
     </row>
     <row r="90" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
-      <c r="B90" s="130" t="s">
+      <c r="B90" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="130"/>
-      <c r="F90" s="130"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="130"/>
-      <c r="I90" s="130"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="130"/>
-      <c r="L90" s="130"/>
-      <c r="M90" s="130"/>
-      <c r="N90" s="130"/>
-      <c r="O90" s="130"/>
-      <c r="P90" s="130"/>
-      <c r="Q90" s="130"/>
-      <c r="R90" s="130"/>
-      <c r="W90" s="130" t="s">
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="W90" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="X90" s="130"/>
-      <c r="Y90" s="130"/>
-      <c r="Z90" s="130"/>
-      <c r="AA90" s="130"/>
-      <c r="AB90" s="130"/>
-      <c r="AC90" s="130"/>
-      <c r="AD90" s="130"/>
-      <c r="AE90" s="130"/>
-      <c r="AF90" s="130"/>
-      <c r="AG90" s="130"/>
-      <c r="AH90" s="130"/>
-      <c r="AI90" s="130"/>
-      <c r="AJ90" s="130"/>
-      <c r="AK90" s="130"/>
+      <c r="X90" s="59"/>
+      <c r="Y90" s="59"/>
+      <c r="Z90" s="59"/>
+      <c r="AA90" s="59"/>
+      <c r="AB90" s="59"/>
+      <c r="AC90" s="59"/>
+      <c r="AD90" s="59"/>
+      <c r="AE90" s="59"/>
+      <c r="AF90" s="59"/>
+      <c r="AG90" s="59"/>
+      <c r="AH90" s="59"/>
+      <c r="AI90" s="59"/>
+      <c r="AJ90" s="59"/>
+      <c r="AK90" s="59"/>
       <c r="AL90" s="21"/>
     </row>
     <row r="91" spans="1:38" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
-      <c r="B91" s="147" t="s">
+      <c r="B91" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="147"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="147"/>
-      <c r="L91" s="147"/>
-      <c r="M91" s="147"/>
-      <c r="N91" s="147"/>
-      <c r="O91" s="147"/>
-      <c r="P91" s="147"/>
-      <c r="Q91" s="147"/>
-      <c r="R91" s="147"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
       <c r="S91" s="23"/>
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
@@ -9092,788 +9092,788 @@
       <c r="AL92" s="24"/>
     </row>
     <row r="93" spans="1:38" s="4" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="142" t="s">
+      <c r="A93" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="142"/>
-      <c r="C93" s="142"/>
-      <c r="D93" s="142"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="142"/>
-      <c r="G93" s="142"/>
-      <c r="H93" s="142"/>
-      <c r="I93" s="142"/>
-      <c r="J93" s="142"/>
-      <c r="K93" s="142"/>
-      <c r="L93" s="142"/>
-      <c r="M93" s="142"/>
-      <c r="N93" s="142"/>
-      <c r="O93" s="142"/>
-      <c r="P93" s="142"/>
-      <c r="Q93" s="142"/>
-      <c r="R93" s="142"/>
-      <c r="S93" s="142"/>
-      <c r="T93" s="142"/>
-      <c r="U93" s="142"/>
-      <c r="V93" s="142"/>
-      <c r="W93" s="142"/>
-      <c r="X93" s="142"/>
-      <c r="Y93" s="142"/>
-      <c r="Z93" s="142"/>
-      <c r="AA93" s="142"/>
-      <c r="AB93" s="142"/>
-      <c r="AC93" s="142"/>
-      <c r="AD93" s="142"/>
-      <c r="AE93" s="142"/>
-      <c r="AF93" s="142"/>
-      <c r="AG93" s="142"/>
-      <c r="AH93" s="142"/>
-      <c r="AI93" s="142"/>
-      <c r="AJ93" s="142"/>
-      <c r="AK93" s="142"/>
-      <c r="AL93" s="142"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
+      <c r="AE93" s="30"/>
+      <c r="AF93" s="30"/>
+      <c r="AG93" s="30"/>
+      <c r="AH93" s="30"/>
+      <c r="AI93" s="30"/>
+      <c r="AJ93" s="30"/>
+      <c r="AK93" s="30"/>
+      <c r="AL93" s="30"/>
     </row>
     <row r="94" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="143" t="s">
+      <c r="A94" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="143"/>
-      <c r="F94" s="143"/>
-      <c r="G94" s="143"/>
-      <c r="H94" s="143"/>
-      <c r="I94" s="143"/>
-      <c r="J94" s="143"/>
-      <c r="K94" s="143"/>
-      <c r="L94" s="143"/>
-      <c r="M94" s="143"/>
-      <c r="N94" s="143"/>
-      <c r="O94" s="143"/>
-      <c r="P94" s="143"/>
-      <c r="Q94" s="143"/>
-      <c r="R94" s="143"/>
-      <c r="S94" s="143"/>
-      <c r="T94" s="143"/>
-      <c r="U94" s="143"/>
-      <c r="V94" s="143"/>
-      <c r="W94" s="143"/>
-      <c r="X94" s="143"/>
-      <c r="Y94" s="143"/>
-      <c r="Z94" s="143"/>
-      <c r="AA94" s="143"/>
-      <c r="AB94" s="143"/>
-      <c r="AC94" s="143"/>
-      <c r="AD94" s="143"/>
-      <c r="AE94" s="143"/>
-      <c r="AF94" s="143"/>
-      <c r="AG94" s="143"/>
-      <c r="AH94" s="143"/>
-      <c r="AI94" s="143"/>
-      <c r="AJ94" s="143"/>
-      <c r="AK94" s="143"/>
-      <c r="AL94" s="143"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="55"/>
+      <c r="S94" s="55"/>
+      <c r="T94" s="55"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="55"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="55"/>
+      <c r="Z94" s="55"/>
+      <c r="AA94" s="55"/>
+      <c r="AB94" s="55"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="55"/>
+      <c r="AG94" s="55"/>
+      <c r="AH94" s="55"/>
+      <c r="AI94" s="55"/>
+      <c r="AJ94" s="55"/>
+      <c r="AK94" s="55"/>
+      <c r="AL94" s="55"/>
     </row>
     <row r="95" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="143"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="143"/>
-      <c r="F95" s="143"/>
-      <c r="G95" s="143"/>
-      <c r="H95" s="143"/>
-      <c r="I95" s="143"/>
-      <c r="J95" s="143"/>
-      <c r="K95" s="143"/>
-      <c r="L95" s="143"/>
-      <c r="M95" s="143"/>
-      <c r="N95" s="143"/>
-      <c r="O95" s="143"/>
-      <c r="P95" s="143"/>
-      <c r="Q95" s="143"/>
-      <c r="R95" s="143"/>
-      <c r="S95" s="143"/>
-      <c r="T95" s="143"/>
-      <c r="U95" s="143"/>
-      <c r="V95" s="143"/>
-      <c r="W95" s="143"/>
-      <c r="X95" s="143"/>
-      <c r="Y95" s="143"/>
-      <c r="Z95" s="143"/>
-      <c r="AA95" s="143"/>
-      <c r="AB95" s="143"/>
-      <c r="AC95" s="143"/>
-      <c r="AD95" s="143"/>
-      <c r="AE95" s="143"/>
-      <c r="AF95" s="143"/>
-      <c r="AG95" s="143"/>
-      <c r="AH95" s="143"/>
-      <c r="AI95" s="143"/>
-      <c r="AJ95" s="143"/>
-      <c r="AK95" s="143"/>
-      <c r="AL95" s="143"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55"/>
+      <c r="R95" s="55"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+      <c r="U95" s="55"/>
+      <c r="V95" s="55"/>
+      <c r="W95" s="55"/>
+      <c r="X95" s="55"/>
+      <c r="Y95" s="55"/>
+      <c r="Z95" s="55"/>
+      <c r="AA95" s="55"/>
+      <c r="AB95" s="55"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="55"/>
+      <c r="AE95" s="55"/>
+      <c r="AF95" s="55"/>
+      <c r="AG95" s="55"/>
+      <c r="AH95" s="55"/>
+      <c r="AI95" s="55"/>
+      <c r="AJ95" s="55"/>
+      <c r="AK95" s="55"/>
+      <c r="AL95" s="55"/>
     </row>
     <row r="96" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="121" t="s">
+      <c r="A96" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="121"/>
-      <c r="C96" s="121"/>
-      <c r="D96" s="121"/>
-      <c r="E96" s="121"/>
-      <c r="F96" s="121"/>
-      <c r="G96" s="121"/>
-      <c r="H96" s="121"/>
-      <c r="I96" s="144"/>
-      <c r="J96" s="144"/>
-      <c r="K96" s="144"/>
-      <c r="L96" s="144"/>
-      <c r="M96" s="144"/>
-      <c r="N96" s="144"/>
-      <c r="O96" s="144"/>
-      <c r="P96" s="144"/>
-      <c r="Q96" s="144"/>
-      <c r="R96" s="144"/>
-      <c r="S96" s="144"/>
-      <c r="T96" s="144"/>
-      <c r="U96" s="144"/>
-      <c r="V96" s="144"/>
-      <c r="W96" s="144"/>
-      <c r="X96" s="144"/>
-      <c r="Y96" s="144"/>
-      <c r="Z96" s="151" t="s">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA96" s="152"/>
-      <c r="AB96" s="152"/>
-      <c r="AC96" s="152"/>
-      <c r="AD96" s="152"/>
-      <c r="AE96" s="152"/>
-      <c r="AF96" s="152"/>
-      <c r="AG96" s="152"/>
-      <c r="AH96" s="152"/>
-      <c r="AI96" s="152"/>
-      <c r="AJ96" s="152"/>
-      <c r="AK96" s="152"/>
-      <c r="AL96" s="153"/>
+      <c r="AA96" s="50"/>
+      <c r="AB96" s="50"/>
+      <c r="AC96" s="50"/>
+      <c r="AD96" s="50"/>
+      <c r="AE96" s="50"/>
+      <c r="AF96" s="50"/>
+      <c r="AG96" s="50"/>
+      <c r="AH96" s="50"/>
+      <c r="AI96" s="50"/>
+      <c r="AJ96" s="50"/>
+      <c r="AK96" s="50"/>
+      <c r="AL96" s="51"/>
     </row>
     <row r="97" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="105" t="s">
+      <c r="A97" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
-      <c r="O97" s="105"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="105"/>
-      <c r="R97" s="105"/>
-      <c r="S97" s="105"/>
-      <c r="T97" s="105"/>
-      <c r="U97" s="105"/>
-      <c r="V97" s="105"/>
-      <c r="W97" s="105"/>
-      <c r="X97" s="105"/>
-      <c r="Y97" s="105"/>
-      <c r="Z97" s="154"/>
-      <c r="AA97" s="155"/>
-      <c r="AB97" s="155"/>
-      <c r="AC97" s="155"/>
-      <c r="AD97" s="155"/>
-      <c r="AE97" s="155"/>
-      <c r="AF97" s="155"/>
-      <c r="AG97" s="155"/>
-      <c r="AH97" s="155"/>
-      <c r="AI97" s="155"/>
-      <c r="AJ97" s="155"/>
-      <c r="AK97" s="155"/>
-      <c r="AL97" s="156"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="52"/>
+      <c r="AA97" s="53"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="53"/>
+      <c r="AD97" s="53"/>
+      <c r="AE97" s="53"/>
+      <c r="AF97" s="53"/>
+      <c r="AG97" s="53"/>
+      <c r="AH97" s="53"/>
+      <c r="AI97" s="53"/>
+      <c r="AJ97" s="53"/>
+      <c r="AK97" s="53"/>
+      <c r="AL97" s="54"/>
     </row>
     <row r="98" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="148" t="s">
+      <c r="A98" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="149" t="s">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J98" s="149"/>
-      <c r="K98" s="149"/>
-      <c r="L98" s="149"/>
-      <c r="M98" s="149"/>
-      <c r="N98" s="149"/>
-      <c r="O98" s="149"/>
-      <c r="P98" s="150" t="s">
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q98" s="150"/>
-      <c r="R98" s="150"/>
-      <c r="S98" s="144"/>
-      <c r="T98" s="144"/>
-      <c r="U98" s="144"/>
-      <c r="V98" s="144"/>
-      <c r="W98" s="144"/>
-      <c r="X98" s="150" t="s">
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Y98" s="150"/>
-      <c r="Z98" s="150"/>
-      <c r="AA98" s="150"/>
-      <c r="AB98" s="150"/>
-      <c r="AC98" s="150"/>
-      <c r="AD98" s="150"/>
-      <c r="AE98" s="150"/>
-      <c r="AF98" s="150"/>
-      <c r="AG98" s="157"/>
-      <c r="AH98" s="158"/>
-      <c r="AI98" s="158"/>
-      <c r="AJ98" s="158"/>
-      <c r="AK98" s="158"/>
-      <c r="AL98" s="159"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
+      <c r="AA98" s="38"/>
+      <c r="AB98" s="38"/>
+      <c r="AC98" s="38"/>
+      <c r="AD98" s="38"/>
+      <c r="AE98" s="38"/>
+      <c r="AF98" s="38"/>
+      <c r="AG98" s="39"/>
+      <c r="AH98" s="40"/>
+      <c r="AI98" s="40"/>
+      <c r="AJ98" s="40"/>
+      <c r="AK98" s="40"/>
+      <c r="AL98" s="41"/>
     </row>
     <row r="99" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="121" t="s">
+      <c r="A99" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="121"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="121"/>
-      <c r="I99" s="144"/>
-      <c r="J99" s="144"/>
-      <c r="K99" s="144"/>
-      <c r="L99" s="144"/>
-      <c r="M99" s="144"/>
-      <c r="N99" s="144"/>
-      <c r="O99" s="144"/>
-      <c r="P99" s="144"/>
-      <c r="Q99" s="144"/>
-      <c r="R99" s="144"/>
-      <c r="S99" s="144"/>
-      <c r="T99" s="144"/>
-      <c r="U99" s="144"/>
-      <c r="V99" s="144"/>
-      <c r="W99" s="144"/>
-      <c r="X99" s="144"/>
-      <c r="Y99" s="144"/>
-      <c r="Z99" s="151" t="s">
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA99" s="152"/>
-      <c r="AB99" s="152"/>
-      <c r="AC99" s="152"/>
-      <c r="AD99" s="152"/>
-      <c r="AE99" s="152"/>
-      <c r="AF99" s="152"/>
-      <c r="AG99" s="152"/>
-      <c r="AH99" s="152"/>
-      <c r="AI99" s="152"/>
-      <c r="AJ99" s="152"/>
-      <c r="AK99" s="152"/>
-      <c r="AL99" s="153"/>
+      <c r="AA99" s="50"/>
+      <c r="AB99" s="50"/>
+      <c r="AC99" s="50"/>
+      <c r="AD99" s="50"/>
+      <c r="AE99" s="50"/>
+      <c r="AF99" s="50"/>
+      <c r="AG99" s="50"/>
+      <c r="AH99" s="50"/>
+      <c r="AI99" s="50"/>
+      <c r="AJ99" s="50"/>
+      <c r="AK99" s="50"/>
+      <c r="AL99" s="51"/>
     </row>
     <row r="100" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="105"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="105"/>
-      <c r="O100" s="105"/>
-      <c r="P100" s="105"/>
-      <c r="Q100" s="105"/>
-      <c r="R100" s="105"/>
-      <c r="S100" s="105"/>
-      <c r="T100" s="105"/>
-      <c r="U100" s="105"/>
-      <c r="V100" s="105"/>
-      <c r="W100" s="105"/>
-      <c r="X100" s="105"/>
-      <c r="Y100" s="105"/>
-      <c r="Z100" s="154"/>
-      <c r="AA100" s="155"/>
-      <c r="AB100" s="155"/>
-      <c r="AC100" s="155"/>
-      <c r="AD100" s="155"/>
-      <c r="AE100" s="155"/>
-      <c r="AF100" s="155"/>
-      <c r="AG100" s="155"/>
-      <c r="AH100" s="155"/>
-      <c r="AI100" s="155"/>
-      <c r="AJ100" s="155"/>
-      <c r="AK100" s="155"/>
-      <c r="AL100" s="156"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="35"/>
+      <c r="W100" s="35"/>
+      <c r="X100" s="35"/>
+      <c r="Y100" s="35"/>
+      <c r="Z100" s="52"/>
+      <c r="AA100" s="53"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="53"/>
+      <c r="AD100" s="53"/>
+      <c r="AE100" s="53"/>
+      <c r="AF100" s="53"/>
+      <c r="AG100" s="53"/>
+      <c r="AH100" s="53"/>
+      <c r="AI100" s="53"/>
+      <c r="AJ100" s="53"/>
+      <c r="AK100" s="53"/>
+      <c r="AL100" s="54"/>
     </row>
     <row r="101" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="148" t="s">
+      <c r="A101" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="148"/>
-      <c r="C101" s="148"/>
-      <c r="D101" s="148"/>
-      <c r="E101" s="148"/>
-      <c r="F101" s="148"/>
-      <c r="G101" s="148"/>
-      <c r="H101" s="148"/>
-      <c r="I101" s="149" t="s">
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J101" s="149"/>
-      <c r="K101" s="149"/>
-      <c r="L101" s="149"/>
-      <c r="M101" s="149"/>
-      <c r="N101" s="149"/>
-      <c r="O101" s="149"/>
-      <c r="P101" s="150" t="s">
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q101" s="150"/>
-      <c r="R101" s="150"/>
-      <c r="S101" s="144"/>
-      <c r="T101" s="144"/>
-      <c r="U101" s="144"/>
-      <c r="V101" s="144"/>
-      <c r="W101" s="144"/>
-      <c r="X101" s="150" t="s">
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
+      <c r="W101" s="33"/>
+      <c r="X101" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Y101" s="150"/>
-      <c r="Z101" s="150"/>
-      <c r="AA101" s="150"/>
-      <c r="AB101" s="150"/>
-      <c r="AC101" s="150"/>
-      <c r="AD101" s="150"/>
-      <c r="AE101" s="150"/>
-      <c r="AF101" s="150"/>
-      <c r="AG101" s="157" t="s">
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="38"/>
+      <c r="AA101" s="38"/>
+      <c r="AB101" s="38"/>
+      <c r="AC101" s="38"/>
+      <c r="AD101" s="38"/>
+      <c r="AE101" s="38"/>
+      <c r="AF101" s="38"/>
+      <c r="AG101" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="AH101" s="158"/>
-      <c r="AI101" s="158"/>
-      <c r="AJ101" s="158"/>
-      <c r="AK101" s="158"/>
-      <c r="AL101" s="159"/>
+      <c r="AH101" s="40"/>
+      <c r="AI101" s="40"/>
+      <c r="AJ101" s="40"/>
+      <c r="AK101" s="40"/>
+      <c r="AL101" s="41"/>
     </row>
     <row r="102" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="168"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="69"/>
-      <c r="W102" s="69"/>
-      <c r="X102" s="69"/>
-      <c r="Y102" s="69"/>
-      <c r="Z102" s="69"/>
-      <c r="AA102" s="69"/>
-      <c r="AB102" s="69"/>
-      <c r="AC102" s="69"/>
-      <c r="AD102" s="69"/>
-      <c r="AE102" s="69"/>
-      <c r="AF102" s="69"/>
-      <c r="AG102" s="69"/>
-      <c r="AH102" s="69"/>
-      <c r="AI102" s="69"/>
-      <c r="AJ102" s="69"/>
-      <c r="AK102" s="69"/>
-      <c r="AL102" s="169"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="28"/>
+      <c r="R102" s="28"/>
+      <c r="S102" s="28"/>
+      <c r="T102" s="28"/>
+      <c r="U102" s="28"/>
+      <c r="V102" s="28"/>
+      <c r="W102" s="28"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+      <c r="AC102" s="28"/>
+      <c r="AD102" s="28"/>
+      <c r="AE102" s="28"/>
+      <c r="AF102" s="28"/>
+      <c r="AG102" s="28"/>
+      <c r="AH102" s="28"/>
+      <c r="AI102" s="28"/>
+      <c r="AJ102" s="28"/>
+      <c r="AK102" s="28"/>
+      <c r="AL102" s="29"/>
     </row>
     <row r="103" spans="1:38" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="142" t="s">
+      <c r="A103" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="142"/>
-      <c r="C103" s="142"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="142"/>
-      <c r="K103" s="142"/>
-      <c r="L103" s="142"/>
-      <c r="M103" s="142"/>
-      <c r="N103" s="142"/>
-      <c r="O103" s="142"/>
-      <c r="P103" s="142"/>
-      <c r="Q103" s="142"/>
-      <c r="R103" s="142"/>
-      <c r="S103" s="142"/>
-      <c r="T103" s="142"/>
-      <c r="U103" s="142"/>
-      <c r="V103" s="142"/>
-      <c r="W103" s="142"/>
-      <c r="X103" s="142"/>
-      <c r="Y103" s="142"/>
-      <c r="Z103" s="142"/>
-      <c r="AA103" s="142"/>
-      <c r="AB103" s="142"/>
-      <c r="AC103" s="142"/>
-      <c r="AD103" s="142"/>
-      <c r="AE103" s="142"/>
-      <c r="AF103" s="142"/>
-      <c r="AG103" s="142"/>
-      <c r="AH103" s="142"/>
-      <c r="AI103" s="142"/>
-      <c r="AJ103" s="142"/>
-      <c r="AK103" s="142"/>
-      <c r="AL103" s="142"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="30"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="30"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="30"/>
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="30"/>
+      <c r="AL103" s="30"/>
     </row>
     <row r="104" spans="1:38" s="4" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="111"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="111"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="111"/>
-      <c r="M104" s="111"/>
-      <c r="N104" s="111"/>
-      <c r="O104" s="111"/>
-      <c r="P104" s="111"/>
-      <c r="Q104" s="111"/>
-      <c r="R104" s="111"/>
-      <c r="S104" s="111"/>
-      <c r="T104" s="111"/>
-      <c r="U104" s="111"/>
-      <c r="V104" s="111"/>
-      <c r="W104" s="111"/>
-      <c r="X104" s="111"/>
-      <c r="Y104" s="111"/>
-      <c r="Z104" s="111"/>
-      <c r="AA104" s="111"/>
-      <c r="AB104" s="111"/>
-      <c r="AC104" s="111"/>
-      <c r="AD104" s="111"/>
-      <c r="AE104" s="111"/>
-      <c r="AF104" s="111"/>
-      <c r="AG104" s="111"/>
-      <c r="AH104" s="111"/>
-      <c r="AI104" s="111"/>
-      <c r="AJ104" s="111"/>
-      <c r="AK104" s="111"/>
-      <c r="AL104" s="111"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="31"/>
+      <c r="S104" s="31"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="31"/>
+      <c r="V104" s="31"/>
+      <c r="W104" s="31"/>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="31"/>
+      <c r="Z104" s="31"/>
+      <c r="AA104" s="31"/>
+      <c r="AB104" s="31"/>
+      <c r="AC104" s="31"/>
+      <c r="AD104" s="31"/>
+      <c r="AE104" s="31"/>
+      <c r="AF104" s="31"/>
+      <c r="AG104" s="31"/>
+      <c r="AH104" s="31"/>
+      <c r="AI104" s="31"/>
+      <c r="AJ104" s="31"/>
+      <c r="AK104" s="31"/>
+      <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="160" t="s">
+      <c r="A105" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="160"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="160"/>
-      <c r="G105" s="160"/>
-      <c r="H105" s="160"/>
-      <c r="I105" s="144"/>
-      <c r="J105" s="144"/>
-      <c r="K105" s="144"/>
-      <c r="L105" s="144"/>
-      <c r="M105" s="144"/>
-      <c r="N105" s="144"/>
-      <c r="O105" s="144"/>
-      <c r="P105" s="144"/>
-      <c r="Q105" s="144"/>
-      <c r="R105" s="144"/>
-      <c r="S105" s="144"/>
-      <c r="T105" s="144"/>
-      <c r="U105" s="144"/>
-      <c r="V105" s="144"/>
-      <c r="W105" s="144"/>
-      <c r="X105" s="144"/>
-      <c r="Y105" s="144"/>
-      <c r="Z105" s="151" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+      <c r="W105" s="33"/>
+      <c r="X105" s="33"/>
+      <c r="Y105" s="33"/>
+      <c r="Z105" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA105" s="152"/>
-      <c r="AB105" s="152"/>
-      <c r="AC105" s="152"/>
-      <c r="AD105" s="152"/>
-      <c r="AE105" s="152"/>
-      <c r="AF105" s="152"/>
-      <c r="AG105" s="152"/>
-      <c r="AH105" s="152"/>
-      <c r="AI105" s="152"/>
-      <c r="AJ105" s="152"/>
-      <c r="AK105" s="152"/>
-      <c r="AL105" s="153"/>
+      <c r="AA105" s="50"/>
+      <c r="AB105" s="50"/>
+      <c r="AC105" s="50"/>
+      <c r="AD105" s="50"/>
+      <c r="AE105" s="50"/>
+      <c r="AF105" s="50"/>
+      <c r="AG105" s="50"/>
+      <c r="AH105" s="50"/>
+      <c r="AI105" s="50"/>
+      <c r="AJ105" s="50"/>
+      <c r="AK105" s="50"/>
+      <c r="AL105" s="51"/>
     </row>
     <row r="106" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="161" t="s">
+      <c r="A106" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="161"/>
-      <c r="C106" s="161"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
-      <c r="F106" s="161"/>
-      <c r="G106" s="161"/>
-      <c r="H106" s="161"/>
-      <c r="I106" s="161"/>
-      <c r="J106" s="161"/>
-      <c r="K106" s="161"/>
-      <c r="L106" s="161"/>
-      <c r="M106" s="161"/>
-      <c r="N106" s="161"/>
-      <c r="O106" s="161"/>
-      <c r="P106" s="161"/>
-      <c r="Q106" s="161"/>
-      <c r="R106" s="161"/>
-      <c r="S106" s="161"/>
-      <c r="T106" s="161"/>
-      <c r="U106" s="161"/>
-      <c r="V106" s="161"/>
-      <c r="W106" s="161"/>
-      <c r="X106" s="161"/>
-      <c r="Y106" s="161"/>
-      <c r="Z106" s="154"/>
-      <c r="AA106" s="155"/>
-      <c r="AB106" s="155"/>
-      <c r="AC106" s="155"/>
-      <c r="AD106" s="155"/>
-      <c r="AE106" s="155"/>
-      <c r="AF106" s="155"/>
-      <c r="AG106" s="155"/>
-      <c r="AH106" s="155"/>
-      <c r="AI106" s="155"/>
-      <c r="AJ106" s="155"/>
-      <c r="AK106" s="155"/>
-      <c r="AL106" s="156"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+      <c r="X106" s="42"/>
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="52"/>
+      <c r="AA106" s="53"/>
+      <c r="AB106" s="53"/>
+      <c r="AC106" s="53"/>
+      <c r="AD106" s="53"/>
+      <c r="AE106" s="53"/>
+      <c r="AF106" s="53"/>
+      <c r="AG106" s="53"/>
+      <c r="AH106" s="53"/>
+      <c r="AI106" s="53"/>
+      <c r="AJ106" s="53"/>
+      <c r="AK106" s="53"/>
+      <c r="AL106" s="54"/>
     </row>
     <row r="107" spans="1:38" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="150" t="s">
+      <c r="A107" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B107" s="150"/>
-      <c r="C107" s="150"/>
-      <c r="D107" s="150"/>
-      <c r="E107" s="150"/>
-      <c r="F107" s="150"/>
-      <c r="G107" s="150"/>
-      <c r="H107" s="150"/>
-      <c r="I107" s="165" t="s">
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J107" s="165"/>
-      <c r="K107" s="165"/>
-      <c r="L107" s="165"/>
-      <c r="M107" s="165"/>
-      <c r="N107" s="165"/>
-      <c r="O107" s="165"/>
-      <c r="P107" s="150" t="s">
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q107" s="150"/>
-      <c r="R107" s="150"/>
-      <c r="S107" s="144"/>
-      <c r="T107" s="144"/>
-      <c r="U107" s="144"/>
-      <c r="V107" s="144"/>
-      <c r="W107" s="144"/>
-      <c r="X107" s="150" t="s">
+      <c r="Q107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="33"/>
+      <c r="T107" s="33"/>
+      <c r="U107" s="33"/>
+      <c r="V107" s="33"/>
+      <c r="W107" s="33"/>
+      <c r="X107" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Y107" s="150"/>
-      <c r="Z107" s="166"/>
-      <c r="AA107" s="166"/>
-      <c r="AB107" s="166"/>
-      <c r="AC107" s="166"/>
-      <c r="AD107" s="166"/>
-      <c r="AE107" s="166"/>
-      <c r="AF107" s="167"/>
-      <c r="AG107" s="158"/>
-      <c r="AH107" s="158"/>
-      <c r="AI107" s="158"/>
-      <c r="AJ107" s="158"/>
-      <c r="AK107" s="158"/>
-      <c r="AL107" s="159"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="47"/>
+      <c r="AA107" s="47"/>
+      <c r="AB107" s="47"/>
+      <c r="AC107" s="47"/>
+      <c r="AD107" s="47"/>
+      <c r="AE107" s="47"/>
+      <c r="AF107" s="48"/>
+      <c r="AG107" s="40"/>
+      <c r="AH107" s="40"/>
+      <c r="AI107" s="40"/>
+      <c r="AJ107" s="40"/>
+      <c r="AK107" s="40"/>
+      <c r="AL107" s="41"/>
     </row>
     <row r="108" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="160" t="s">
+      <c r="A108" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="160"/>
-      <c r="C108" s="160"/>
-      <c r="D108" s="160"/>
-      <c r="E108" s="160"/>
-      <c r="F108" s="160"/>
-      <c r="G108" s="160"/>
-      <c r="H108" s="160"/>
-      <c r="I108" s="144"/>
-      <c r="J108" s="144"/>
-      <c r="K108" s="144"/>
-      <c r="L108" s="144"/>
-      <c r="M108" s="144"/>
-      <c r="N108" s="144"/>
-      <c r="O108" s="144"/>
-      <c r="P108" s="144"/>
-      <c r="Q108" s="144"/>
-      <c r="R108" s="144"/>
-      <c r="S108" s="144"/>
-      <c r="T108" s="144"/>
-      <c r="U108" s="144"/>
-      <c r="V108" s="144"/>
-      <c r="W108" s="144"/>
-      <c r="X108" s="144"/>
-      <c r="Y108" s="144"/>
-      <c r="Z108" s="151" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="33"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
+      <c r="V108" s="33"/>
+      <c r="W108" s="33"/>
+      <c r="X108" s="33"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA108" s="152"/>
-      <c r="AB108" s="152"/>
-      <c r="AC108" s="152"/>
-      <c r="AD108" s="152"/>
-      <c r="AE108" s="152"/>
-      <c r="AF108" s="152"/>
-      <c r="AG108" s="152"/>
-      <c r="AH108" s="152"/>
-      <c r="AI108" s="152"/>
-      <c r="AJ108" s="152"/>
-      <c r="AK108" s="152"/>
-      <c r="AL108" s="153"/>
+      <c r="AA108" s="50"/>
+      <c r="AB108" s="50"/>
+      <c r="AC108" s="50"/>
+      <c r="AD108" s="50"/>
+      <c r="AE108" s="50"/>
+      <c r="AF108" s="50"/>
+      <c r="AG108" s="50"/>
+      <c r="AH108" s="50"/>
+      <c r="AI108" s="50"/>
+      <c r="AJ108" s="50"/>
+      <c r="AK108" s="50"/>
+      <c r="AL108" s="51"/>
     </row>
     <row r="109" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="161" t="s">
+      <c r="A109" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="161"/>
-      <c r="C109" s="161"/>
-      <c r="D109" s="161"/>
-      <c r="E109" s="161"/>
-      <c r="F109" s="161"/>
-      <c r="G109" s="161"/>
-      <c r="H109" s="161"/>
-      <c r="I109" s="161"/>
-      <c r="J109" s="161"/>
-      <c r="K109" s="161"/>
-      <c r="L109" s="161"/>
-      <c r="M109" s="161"/>
-      <c r="N109" s="161"/>
-      <c r="O109" s="161"/>
-      <c r="P109" s="161"/>
-      <c r="Q109" s="161"/>
-      <c r="R109" s="161"/>
-      <c r="S109" s="161"/>
-      <c r="T109" s="161"/>
-      <c r="U109" s="161"/>
-      <c r="V109" s="161"/>
-      <c r="W109" s="161"/>
-      <c r="X109" s="161"/>
-      <c r="Y109" s="161"/>
-      <c r="Z109" s="154"/>
-      <c r="AA109" s="155"/>
-      <c r="AB109" s="155"/>
-      <c r="AC109" s="155"/>
-      <c r="AD109" s="155"/>
-      <c r="AE109" s="155"/>
-      <c r="AF109" s="155"/>
-      <c r="AG109" s="155"/>
-      <c r="AH109" s="155"/>
-      <c r="AI109" s="155"/>
-      <c r="AJ109" s="155"/>
-      <c r="AK109" s="155"/>
-      <c r="AL109" s="156"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="42"/>
+      <c r="W109" s="42"/>
+      <c r="X109" s="42"/>
+      <c r="Y109" s="42"/>
+      <c r="Z109" s="52"/>
+      <c r="AA109" s="53"/>
+      <c r="AB109" s="53"/>
+      <c r="AC109" s="53"/>
+      <c r="AD109" s="53"/>
+      <c r="AE109" s="53"/>
+      <c r="AF109" s="53"/>
+      <c r="AG109" s="53"/>
+      <c r="AH109" s="53"/>
+      <c r="AI109" s="53"/>
+      <c r="AJ109" s="53"/>
+      <c r="AK109" s="53"/>
+      <c r="AL109" s="54"/>
     </row>
     <row r="110" spans="1:38" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="150" t="s">
+      <c r="A110" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B110" s="150"/>
-      <c r="C110" s="150"/>
-      <c r="D110" s="150"/>
-      <c r="E110" s="150"/>
-      <c r="F110" s="150"/>
-      <c r="G110" s="150"/>
-      <c r="H110" s="150"/>
-      <c r="I110" s="162" t="s">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J110" s="162"/>
-      <c r="K110" s="162"/>
-      <c r="L110" s="162"/>
-      <c r="M110" s="162"/>
-      <c r="N110" s="162"/>
-      <c r="O110" s="162"/>
-      <c r="P110" s="150" t="s">
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q110" s="150"/>
-      <c r="R110" s="150"/>
-      <c r="S110" s="144"/>
-      <c r="T110" s="144"/>
-      <c r="U110" s="144"/>
-      <c r="V110" s="144"/>
-      <c r="W110" s="144"/>
-      <c r="X110" s="150" t="s">
+      <c r="Q110" s="38"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="33"/>
+      <c r="W110" s="33"/>
+      <c r="X110" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Y110" s="150"/>
-      <c r="Z110" s="163"/>
-      <c r="AA110" s="163"/>
-      <c r="AB110" s="163"/>
-      <c r="AC110" s="163"/>
-      <c r="AD110" s="163"/>
-      <c r="AE110" s="163"/>
-      <c r="AF110" s="164"/>
-      <c r="AG110" s="158"/>
-      <c r="AH110" s="158"/>
-      <c r="AI110" s="158"/>
-      <c r="AJ110" s="158"/>
-      <c r="AK110" s="158"/>
-      <c r="AL110" s="159"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="44"/>
+      <c r="AA110" s="44"/>
+      <c r="AB110" s="44"/>
+      <c r="AC110" s="44"/>
+      <c r="AD110" s="44"/>
+      <c r="AE110" s="44"/>
+      <c r="AF110" s="45"/>
+      <c r="AG110" s="40"/>
+      <c r="AH110" s="40"/>
+      <c r="AI110" s="40"/>
+      <c r="AJ110" s="40"/>
+      <c r="AK110" s="40"/>
+      <c r="AL110" s="41"/>
     </row>
     <row r="111" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9920,226 +9920,26 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ft5ihDEjtNt2M9bTZq9FXo2bT/WaEAsbmeDWb3p1OHFqx0hk5YRG/QJBKj0kkns7MEjloghNVMpSJJlFMXGHGw==" saltValue="v71lLiZvChwiBaOM+30HYw==" spinCount="100000" selectLockedCells="1"/>
   <mergeCells count="260">
-    <mergeCell ref="A102:AL102"/>
-    <mergeCell ref="A103:AL103"/>
-    <mergeCell ref="A104:AL104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="I105:Y105"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="I99:Y99"/>
-    <mergeCell ref="A100:Y100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="I101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:W101"/>
-    <mergeCell ref="X101:AF101"/>
-    <mergeCell ref="AG101:AL101"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="I108:Y108"/>
-    <mergeCell ref="A109:Y109"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="I110:O110"/>
-    <mergeCell ref="P110:R110"/>
-    <mergeCell ref="S110:W110"/>
-    <mergeCell ref="X110:AF110"/>
-    <mergeCell ref="A106:Y106"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="P107:R107"/>
-    <mergeCell ref="S107:W107"/>
-    <mergeCell ref="X107:AF107"/>
-    <mergeCell ref="Z105:AL106"/>
-    <mergeCell ref="Z108:AL109"/>
-    <mergeCell ref="AG110:AL110"/>
-    <mergeCell ref="AG107:AL107"/>
-    <mergeCell ref="A97:Y97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="I98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:W98"/>
-    <mergeCell ref="X98:AF98"/>
-    <mergeCell ref="Z99:AL100"/>
-    <mergeCell ref="Z96:AL97"/>
-    <mergeCell ref="AG98:AL98"/>
-    <mergeCell ref="A93:AL93"/>
-    <mergeCell ref="A94:AL95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="I96:Y96"/>
-    <mergeCell ref="A87:AL87"/>
-    <mergeCell ref="B89:R89"/>
-    <mergeCell ref="W89:AK89"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="W90:AK90"/>
-    <mergeCell ref="B91:R91"/>
-    <mergeCell ref="A77:AL77"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="Q84:V84"/>
-    <mergeCell ref="X84:AD84"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="P85:V85"/>
-    <mergeCell ref="X85:AD85"/>
-    <mergeCell ref="B70:AL70"/>
-    <mergeCell ref="B71:AL71"/>
-    <mergeCell ref="B72:AL72"/>
-    <mergeCell ref="B73:AL73"/>
-    <mergeCell ref="B74:AL74"/>
-    <mergeCell ref="A76:AL76"/>
-    <mergeCell ref="B64:AL64"/>
-    <mergeCell ref="B65:AL65"/>
-    <mergeCell ref="B66:AL66"/>
-    <mergeCell ref="B67:AL67"/>
-    <mergeCell ref="B68:AL68"/>
-    <mergeCell ref="B69:AL69"/>
-    <mergeCell ref="B57:AL57"/>
-    <mergeCell ref="A59:AL59"/>
-    <mergeCell ref="A60:AL60"/>
-    <mergeCell ref="A62:AL62"/>
-    <mergeCell ref="A63:AL63"/>
-    <mergeCell ref="AG50:AL50"/>
-    <mergeCell ref="A52:AL52"/>
-    <mergeCell ref="A53:AL53"/>
-    <mergeCell ref="B54:AL54"/>
-    <mergeCell ref="B55:AL55"/>
-    <mergeCell ref="B56:AL56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:AC50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="A48:AL48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:AC49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AL49"/>
-    <mergeCell ref="A44:Q44"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="Z44:AL44"/>
-    <mergeCell ref="A46:AL46"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="W47:AL47"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="A41:AL41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:AG42"/>
-    <mergeCell ref="AH42:AL42"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="R43:Y43"/>
-    <mergeCell ref="Z43:AL43"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="Z39:AF39"/>
-    <mergeCell ref="AG39:AL39"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:Y38"/>
-    <mergeCell ref="Z38:AF38"/>
-    <mergeCell ref="AG38:AL38"/>
-    <mergeCell ref="A36:AL36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:Y37"/>
-    <mergeCell ref="Z37:AF37"/>
-    <mergeCell ref="AG37:AL37"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:W34"/>
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="AB34:AG34"/>
-    <mergeCell ref="AH34:AL34"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="M33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AG33"/>
-    <mergeCell ref="AH33:AL33"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="AB32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AG31"/>
-    <mergeCell ref="AH31:AL31"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="AH30:AL30"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="M29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AG29"/>
-    <mergeCell ref="AH29:AL29"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M27:W27"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AG28"/>
-    <mergeCell ref="AH28:AL28"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AL27"/>
-    <mergeCell ref="M28:W28"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AL26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="V22:AL22"/>
-    <mergeCell ref="A24:AL24"/>
-    <mergeCell ref="A25:AL25"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="A18:AL18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH16:AL16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="AH15:AL15"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:AF3"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="A4:AL4"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AL6"/>
     <mergeCell ref="A13:AL13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:O14"/>
@@ -10160,26 +9960,226 @@
     <mergeCell ref="V10:AA10"/>
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="H1:AF3"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AG3:AL3"/>
-    <mergeCell ref="A4:AL4"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AL6"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH16:AL16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="AH15:AL15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="A18:AL18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AL26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="V22:AL22"/>
+    <mergeCell ref="A24:AL24"/>
+    <mergeCell ref="A25:AL25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M27:W27"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="AH28:AL28"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AG27"/>
+    <mergeCell ref="AH27:AL27"/>
+    <mergeCell ref="M28:W28"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="AH30:AL30"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="M29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AG29"/>
+    <mergeCell ref="AH29:AL29"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="AB32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AG31"/>
+    <mergeCell ref="AH31:AL31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:W34"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AB34:AG34"/>
+    <mergeCell ref="AH34:AL34"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="M33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AG33"/>
+    <mergeCell ref="AH33:AL33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="S38:Y38"/>
+    <mergeCell ref="Z38:AF38"/>
+    <mergeCell ref="AG38:AL38"/>
+    <mergeCell ref="A36:AL36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="Z37:AF37"/>
+    <mergeCell ref="AG37:AL37"/>
+    <mergeCell ref="A41:AL41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:AG42"/>
+    <mergeCell ref="AH42:AL42"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="R43:Y43"/>
+    <mergeCell ref="Z43:AL43"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="Z39:AF39"/>
+    <mergeCell ref="AG39:AL39"/>
+    <mergeCell ref="A48:AL48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:AC49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AL49"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="Z44:AL44"/>
+    <mergeCell ref="A46:AL46"/>
+    <mergeCell ref="A47:V47"/>
+    <mergeCell ref="W47:AL47"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="AG50:AL50"/>
+    <mergeCell ref="A52:AL52"/>
+    <mergeCell ref="A53:AL53"/>
+    <mergeCell ref="B54:AL54"/>
+    <mergeCell ref="B55:AL55"/>
+    <mergeCell ref="B56:AL56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:AC50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="B64:AL64"/>
+    <mergeCell ref="B65:AL65"/>
+    <mergeCell ref="B66:AL66"/>
+    <mergeCell ref="B67:AL67"/>
+    <mergeCell ref="B68:AL68"/>
+    <mergeCell ref="B69:AL69"/>
+    <mergeCell ref="B57:AL57"/>
+    <mergeCell ref="A59:AL59"/>
+    <mergeCell ref="A60:AL60"/>
+    <mergeCell ref="A62:AL62"/>
+    <mergeCell ref="A63:AL63"/>
+    <mergeCell ref="A77:AL77"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="Q84:V84"/>
+    <mergeCell ref="X84:AD84"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="P85:V85"/>
+    <mergeCell ref="X85:AD85"/>
+    <mergeCell ref="B70:AL70"/>
+    <mergeCell ref="B71:AL71"/>
+    <mergeCell ref="B72:AL72"/>
+    <mergeCell ref="B73:AL73"/>
+    <mergeCell ref="B74:AL74"/>
+    <mergeCell ref="A76:AL76"/>
+    <mergeCell ref="A93:AL93"/>
+    <mergeCell ref="A94:AL95"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="I96:Y96"/>
+    <mergeCell ref="A87:AL87"/>
+    <mergeCell ref="B89:R89"/>
+    <mergeCell ref="W89:AK89"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="W90:AK90"/>
+    <mergeCell ref="B91:R91"/>
+    <mergeCell ref="A97:Y97"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="I98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:W98"/>
+    <mergeCell ref="X98:AF98"/>
+    <mergeCell ref="Z99:AL100"/>
+    <mergeCell ref="Z96:AL97"/>
+    <mergeCell ref="AG98:AL98"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="I108:Y108"/>
+    <mergeCell ref="A109:Y109"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="I110:O110"/>
+    <mergeCell ref="P110:R110"/>
+    <mergeCell ref="S110:W110"/>
+    <mergeCell ref="X110:AF110"/>
+    <mergeCell ref="A106:Y106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="S107:W107"/>
+    <mergeCell ref="X107:AF107"/>
+    <mergeCell ref="Z105:AL106"/>
+    <mergeCell ref="Z108:AL109"/>
+    <mergeCell ref="AG110:AL110"/>
+    <mergeCell ref="AG107:AL107"/>
+    <mergeCell ref="A102:AL102"/>
+    <mergeCell ref="A103:AL103"/>
+    <mergeCell ref="A104:AL104"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="I105:Y105"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="I99:Y99"/>
+    <mergeCell ref="A100:Y100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="I101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:W101"/>
+    <mergeCell ref="X101:AF101"/>
+    <mergeCell ref="AG101:AL101"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
